--- a/sriramModel-nelson-atypical-patientID_19-sims-crh-5-iterations.xlsx
+++ b/sriramModel-nelson-atypical-patientID_19-sims-crh-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.161153376568984</v>
+        <v>1.186350040958875</v>
       </c>
       <c r="C2">
-        <v>0.9571983991235671</v>
+        <v>1.1659615406681</v>
       </c>
       <c r="D2">
-        <v>1.024048280164447</v>
+        <v>1.221763499374728</v>
       </c>
       <c r="E2">
-        <v>1.188820213809898</v>
+        <v>1.131248675554231</v>
       </c>
       <c r="F2">
-        <v>1.237097142036428</v>
+        <v>1.115693684573274</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.309651776487024</v>
+        <v>1.37254928851505</v>
       </c>
       <c r="C3">
-        <v>0.9147686970719349</v>
+        <v>1.33062415688704</v>
       </c>
       <c r="D3">
-        <v>1.046895367271107</v>
+        <v>1.440645866157432</v>
       </c>
       <c r="E3">
-        <v>1.376208452980779</v>
+        <v>1.262211971878166</v>
       </c>
       <c r="F3">
-        <v>1.463236225679411</v>
+        <v>1.227905532537289</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.439452933364163</v>
+        <v>1.558602686480166</v>
       </c>
       <c r="C4">
-        <v>0.8727450574833485</v>
+        <v>1.492244662497215</v>
       </c>
       <c r="D4">
-        <v>1.067793620418519</v>
+        <v>1.654725214345781</v>
       </c>
       <c r="E4">
-        <v>1.557631975210452</v>
+        <v>1.392900000394639</v>
       </c>
       <c r="F4">
-        <v>1.664144420216326</v>
+        <v>1.336717816650042</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.543770555727451</v>
+        <v>1.744514926247731</v>
       </c>
       <c r="C5">
-        <v>0.8311653582629354</v>
+        <v>1.643008905881993</v>
       </c>
       <c r="D5">
-        <v>1.085822203113958</v>
+        <v>1.857323878197556</v>
       </c>
       <c r="E5">
-        <v>1.704133930191032</v>
+        <v>1.523322313755282</v>
       </c>
       <c r="F5">
-        <v>1.819468486395258</v>
+        <v>1.442213792025942</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.617823720009749</v>
+        <v>1.930290468404921</v>
       </c>
       <c r="C6">
-        <v>0.7900715915562146</v>
+        <v>1.762353481620786</v>
       </c>
       <c r="D6">
-        <v>1.100128511504197</v>
+        <v>2.032448352885325</v>
       </c>
       <c r="E6">
-        <v>1.768896554739682</v>
+        <v>1.653487954529657</v>
       </c>
       <c r="F6">
-        <v>1.917762940178841</v>
+        <v>1.544477331037053</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.661337500180595</v>
+        <v>2.115933554901923</v>
       </c>
       <c r="C7">
-        <v>0.749510049282631</v>
+        <v>1.829591056221412</v>
       </c>
       <c r="D7">
-        <v>1.110250095259472</v>
+        <v>2.157961742970564</v>
       </c>
       <c r="E7">
-        <v>1.778189298879721</v>
+        <v>1.783405492959238</v>
       </c>
       <c r="F7">
-        <v>1.967994966060976</v>
+        <v>1.643592522194388</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.678513627510506</v>
+        <v>2.301448221313384</v>
       </c>
       <c r="C8">
-        <v>0.7095316229773818</v>
+        <v>1.85256600527551</v>
       </c>
       <c r="D8">
-        <v>1.116290177082309</v>
+        <v>2.225302402658592</v>
       </c>
       <c r="E8">
-        <v>1.771764396550837</v>
+        <v>1.913083061353246</v>
       </c>
       <c r="F8">
-        <v>1.988494461386612</v>
+        <v>1.739643303062004</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.675718018239645</v>
+        <v>2.486838310038463</v>
       </c>
       <c r="C9">
-        <v>0.6701921098973666</v>
+        <v>1.853086754526649</v>
       </c>
       <c r="D9">
-        <v>1.11881450860153</v>
+        <v>2.248390368390014</v>
       </c>
       <c r="E9">
-        <v>1.761845536793184</v>
+        <v>2.04252838218046</v>
       </c>
       <c r="F9">
-        <v>1.993550870810212</v>
+        <v>1.832713157679476</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.65911269546158</v>
+        <v>2.672107481012965</v>
       </c>
       <c r="C10">
-        <v>0.6315524355703989</v>
+        <v>1.844643460580158</v>
       </c>
       <c r="D10">
-        <v>1.118587729839539</v>
+        <v>2.246636492429027</v>
       </c>
       <c r="E10">
-        <v>1.75112930001918</v>
+        <v>2.171748772781232</v>
       </c>
       <c r="F10">
-        <v>1.991116652125651</v>
+        <v>1.922884880151041</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.633519618793652</v>
+        <v>2.857259221076893</v>
       </c>
       <c r="C11">
-        <v>0.5936788320040606</v>
+        <v>1.83280112769024</v>
       </c>
       <c r="D11">
-        <v>1.116346191795351</v>
+        <v>2.232859932782711</v>
       </c>
       <c r="E11">
-        <v>1.740237258573218</v>
+        <v>2.300751200080352</v>
       </c>
       <c r="F11">
-        <v>1.985087892613636</v>
+        <v>2.010240322853741</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.602306006544229</v>
+        <v>3.042296852566435</v>
       </c>
       <c r="C12">
-        <v>0.5566429134188496</v>
+        <v>1.819647932709697</v>
       </c>
       <c r="D12">
-        <v>1.112688718093185</v>
+        <v>2.213535978430313</v>
       </c>
       <c r="E12">
-        <v>1.729329447759661</v>
+        <v>2.429542305329451</v>
       </c>
       <c r="F12">
-        <v>1.977311592692322</v>
+        <v>2.094860147565526</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.567688786458674</v>
+        <v>3.227223542514898</v>
       </c>
       <c r="C13">
-        <v>0.5205216238015486</v>
+        <v>1.805980341915349</v>
       </c>
       <c r="D13">
-        <v>1.108059020101321</v>
+        <v>2.191671767852125</v>
       </c>
       <c r="E13">
-        <v>1.718451617429598</v>
+        <v>2.558128415171065</v>
       </c>
       <c r="F13">
-        <v>1.968670119271858</v>
+        <v>2.17682365391919</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.531089329979666</v>
+        <v>3.41204230279904</v>
       </c>
       <c r="C14">
-        <v>0.4853970052978446</v>
+        <v>1.792117066086148</v>
       </c>
       <c r="D14">
-        <v>1.102769782044537</v>
+        <v>2.168654977110246</v>
       </c>
       <c r="E14">
-        <v>1.707618205278984</v>
+        <v>2.686515553766881</v>
       </c>
       <c r="F14">
-        <v>1.959595125621593</v>
+        <v>2.256208660656116</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.493411933731954</v>
+        <v>3.596756003602165</v>
       </c>
       <c r="C15">
-        <v>0.4513556960267667</v>
+        <v>1.778192443040414</v>
       </c>
       <c r="D15">
-        <v>1.097036002236394</v>
+        <v>2.145141198697793</v>
       </c>
       <c r="E15">
-        <v>1.696834036878665</v>
+        <v>2.814709463377211</v>
       </c>
       <c r="F15">
-        <v>1.950304215161986</v>
+        <v>2.333091391051138</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.455233905018485</v>
+        <v>3.78136737757034</v>
       </c>
       <c r="C16">
-        <v>0.4184881433944708</v>
+        <v>1.764266826126799</v>
       </c>
       <c r="D16">
-        <v>1.091004182994131</v>
+        <v>2.121450735191264</v>
       </c>
       <c r="E16">
-        <v>1.686100871246271</v>
+        <v>2.942715625606547</v>
       </c>
       <c r="F16">
-        <v>1.940910352444494</v>
+        <v>2.40754636144871</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.416927490081135</v>
+        <v>3.965879022376027</v>
       </c>
       <c r="C17">
-        <v>0.3868874145940954</v>
+        <v>1.750368174357207</v>
       </c>
       <c r="D17">
-        <v>1.08477411962643</v>
+        <v>2.097745781969787</v>
       </c>
       <c r="E17">
-        <v>1.675419396901819</v>
+        <v>3.07053927454474</v>
       </c>
       <c r="F17">
-        <v>1.931473978943851</v>
+        <v>2.479646312257557</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.378736068029867</v>
+        <v>4.150293402432222</v>
       </c>
       <c r="C18">
-        <v>0.3566473532581796</v>
+        <v>1.736510308867822</v>
       </c>
       <c r="D18">
-        <v>1.078414157713072</v>
+        <v>2.074111443381354</v>
       </c>
       <c r="E18">
-        <v>1.664789760021288</v>
+        <v>3.19818541455152</v>
       </c>
       <c r="F18">
-        <v>1.922028374500756</v>
+        <v>2.54946211442223</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.340821366977261</v>
+        <v>4.334612851453212</v>
       </c>
       <c r="C19">
-        <v>0.3278604285576138</v>
+        <v>1.722700257077482</v>
       </c>
       <c r="D19">
-        <v>1.071971484451261</v>
+        <v>2.050593766585048</v>
       </c>
       <c r="E19">
-        <v>1.654211947004784</v>
+        <v>3.325658825381297</v>
       </c>
       <c r="F19">
-        <v>1.912592392780014</v>
+        <v>2.617062780272317</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.303292781769263</v>
+        <v>4.518839574533533</v>
       </c>
       <c r="C20">
-        <v>0.3006148874506485</v>
+        <v>1.708941986662503</v>
       </c>
       <c r="D20">
-        <v>1.065479003119888</v>
+        <v>2.027218455291564</v>
       </c>
       <c r="E20">
-        <v>1.64368588579948</v>
+        <v>3.452964083921869</v>
       </c>
       <c r="F20">
-        <v>1.903176879756689</v>
+        <v>2.682515320422043</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.266225686072036</v>
+        <v>4.702975648060705</v>
       </c>
       <c r="C21">
-        <v>0.2749913104079897</v>
+        <v>1.695237634517758</v>
       </c>
       <c r="D21">
-        <v>1.05895989352039</v>
+        <v>2.004000270386049</v>
       </c>
       <c r="E21">
-        <v>1.63321166295225</v>
+        <v>3.580105565626684</v>
       </c>
       <c r="F21">
-        <v>1.893788275878614</v>
+        <v>2.745884889238166</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.229673055383132</v>
+        <v>4.887023018897509</v>
       </c>
       <c r="C22">
-        <v>0.2510587476837204</v>
+        <v>1.681588493941554</v>
       </c>
       <c r="D22">
-        <v>1.052430654529523</v>
+        <v>1.980947945981991</v>
       </c>
       <c r="E22">
-        <v>1.622789153628769</v>
+        <v>3.707087456039786</v>
       </c>
       <c r="F22">
-        <v>1.884430445706996</v>
+        <v>2.807234717912261</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.193672851200255</v>
+        <v>5.070983500973244</v>
       </c>
       <c r="C23">
-        <v>0.2288706107799826</v>
+        <v>1.667995421780096</v>
       </c>
       <c r="D23">
-        <v>1.04590314532057</v>
+        <v>1.95806666032396</v>
       </c>
       <c r="E23">
-        <v>1.612418174694596</v>
+        <v>3.833913763741998</v>
       </c>
       <c r="F23">
-        <v>1.875105767348731</v>
+        <v>2.866626112018611</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.158252740823144</v>
+        <v>5.254858776314081</v>
       </c>
       <c r="C24">
-        <v>0.2084606687749398</v>
+        <v>1.654459021676223</v>
       </c>
       <c r="D24">
-        <v>1.039386001909298</v>
+        <v>1.935359562977311</v>
       </c>
       <c r="E24">
-        <v>1.602098627504524</v>
+        <v>3.960588323909309</v>
       </c>
       <c r="F24">
-        <v>1.865815727103142</v>
+        <v>2.924118458758899</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.123433295533061</v>
+        <v>5.438650382887396</v>
       </c>
       <c r="C25">
-        <v>0.18983948295882</v>
+        <v>1.640979733728856</v>
       </c>
       <c r="D25">
-        <v>1.032885537464594</v>
+        <v>1.912828643911663</v>
       </c>
       <c r="E25">
-        <v>1.591830430285083</v>
+        <v>4.087114809610805</v>
       </c>
       <c r="F25">
-        <v>1.856561244417974</v>
+        <v>2.979769245952279</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1.089230037844813</v>
+        <v>5.622359715879581</v>
       </c>
       <c r="C26">
-        <v>0.172991975764913</v>
+        <v>1.62755790328884</v>
       </c>
       <c r="D26">
-        <v>1.026406406987554</v>
+        <v>1.890475145217605</v>
       </c>
       <c r="E26">
-        <v>1.581613469913324</v>
+        <v>4.213496739166374</v>
       </c>
       <c r="F26">
-        <v>1.847342873915758</v>
+        <v>3.033634099395987</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1.055654825300417</v>
+        <v>5.805988013480148</v>
       </c>
       <c r="C27">
-        <v>0.157876441462055</v>
+        <v>1.614193807909856</v>
       </c>
       <c r="D27">
-        <v>1.019952075821366</v>
+        <v>1.86829979189041</v>
       </c>
       <c r="E27">
-        <v>1.571447621776073</v>
+        <v>4.33973748113532</v>
       </c>
       <c r="F27">
-        <v>1.838160960858817</v>
+        <v>3.085766829884314</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1.022716808161102</v>
+        <v>5.989536347975341</v>
       </c>
       <c r="C28">
-        <v>0.1444252159696705</v>
+        <v>1.60088770541943</v>
       </c>
       <c r="D28">
-        <v>1.013525136813103</v>
+        <v>1.846302981703195</v>
       </c>
       <c r="E28">
-        <v>1.561332768100039</v>
+        <v>4.465840261340134</v>
       </c>
       <c r="F28">
-        <v>1.829015728213523</v>
+        <v>3.136219463505531</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.9904230852123093</v>
+        <v>6.173005618492597</v>
       </c>
       <c r="C29">
-        <v>0.1325472279552793</v>
+        <v>1.587639843209738</v>
       </c>
       <c r="D29">
-        <v>1.007127531972467</v>
+        <v>1.824484933068271</v>
       </c>
       <c r="E29">
-        <v>1.551268799394781</v>
+        <v>4.591808167629896</v>
       </c>
       <c r="F29">
-        <v>1.819907306165611</v>
+        <v>3.185042281231254</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.958779107645511</v>
+        <v>6.356396530556769</v>
       </c>
       <c r="C30">
-        <v>0.1221321285411592</v>
+        <v>1.574450447726458</v>
       </c>
       <c r="D30">
-        <v>1.000760721604866</v>
+        <v>1.802845731525422</v>
       </c>
       <c r="E30">
-        <v>1.541255606819905</v>
+        <v>4.717644153418042</v>
       </c>
       <c r="F30">
-        <v>1.810835753384236</v>
+        <v>3.232283861688489</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.9277889952653343</v>
+        <v>6.539709583699066</v>
       </c>
       <c r="C31">
-        <v>0.1130555581212695</v>
+        <v>1.561319728343968</v>
       </c>
       <c r="D31">
-        <v>0.9944258114138055</v>
+        <v>1.781385381127807</v>
       </c>
       <c r="E31">
-        <v>1.531293077866564</v>
+        <v>4.843351043804523</v>
       </c>
       <c r="F31">
-        <v>1.801801078027839</v>
+        <v>3.27799112824603</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.8974557688045584</v>
+        <v>6.722945053280991</v>
       </c>
       <c r="C32">
-        <v>0.1051849334080337</v>
+        <v>1.548247888445184</v>
       </c>
       <c r="D32">
-        <v>0.9881236368102074</v>
+        <v>1.760103840258</v>
       </c>
       <c r="E32">
-        <v>1.521381097376385</v>
+        <v>4.968931537786979</v>
       </c>
       <c r="F32">
-        <v>1.792803256681423</v>
+        <v>3.322209397869381</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.8677814983473534</v>
+        <v>6.906102961674655</v>
       </c>
       <c r="C33">
-        <v>0.09838516320200236</v>
+        <v>1.535235125023815</v>
       </c>
       <c r="D33">
-        <v>0.9818548199272208</v>
+        <v>1.739000960127122</v>
       </c>
       <c r="E33">
-        <v>1.511519544987928</v>
+        <v>5.094388211869447</v>
       </c>
       <c r="F33">
-        <v>1.783842248678412</v>
+        <v>3.364982433934896</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.8387674038199356</v>
+        <v>7.089183062278162</v>
       </c>
       <c r="C34">
-        <v>0.09252373507506836</v>
+        <v>1.522281635096671</v>
       </c>
       <c r="D34">
-        <v>0.9756198164018685</v>
+        <v>1.718076554436246</v>
       </c>
       <c r="E34">
-        <v>1.501708296595404</v>
+        <v>5.219723523814651</v>
       </c>
       <c r="F34">
-        <v>1.7749180052161</v>
+        <v>3.406352495561769</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.8104139324538424</v>
+        <v>7.272184802088989</v>
       </c>
       <c r="C35">
-        <v>0.08747469404632574</v>
+        <v>1.50938761878443</v>
       </c>
       <c r="D35">
-        <v>0.9694189561246361</v>
+        <v>1.697330397345552</v>
       </c>
       <c r="E35">
-        <v>1.491947231323721</v>
+        <v>5.34493981323079</v>
       </c>
       <c r="F35">
-        <v>1.766030468451286</v>
+        <v>3.44636038812822</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.7827208178371847</v>
+        <v>7.455107287793535</v>
       </c>
       <c r="C36">
-        <v>0.08312162273152524</v>
+        <v>1.496553269408595</v>
       </c>
       <c r="D36">
-        <v>0.9632524735191679</v>
+        <v>1.676762237271596</v>
       </c>
       <c r="E36">
-        <v>1.482236228718385</v>
+        <v>5.47003930380422</v>
       </c>
       <c r="F36">
-        <v>1.757179570482292</v>
+        <v>3.485045514556409</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.7556871221478028</v>
+        <v>7.637949259593556</v>
       </c>
       <c r="C37">
-        <v>0.07935941169986549</v>
+        <v>1.483778772129731</v>
       </c>
       <c r="D37">
-        <v>0.9571205278990276</v>
+        <v>1.65637180775472</v>
       </c>
       <c r="E37">
-        <v>1.472575168137621</v>
+        <v>5.595024104973144</v>
       </c>
       <c r="F37">
-        <v>1.748365236732356</v>
+        <v>3.522445926640209</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.7293112645827562</v>
+        <v>7.820709030916589</v>
       </c>
       <c r="C38">
-        <v>0.07609505530532501</v>
+        <v>1.471064309619186</v>
       </c>
       <c r="D38">
-        <v>0.9510232175881882</v>
+        <v>1.636158819070608</v>
       </c>
       <c r="E38">
-        <v>1.46296392822048</v>
+        <v>5.719896210582751</v>
       </c>
       <c r="F38">
-        <v>1.739587388748636</v>
+        <v>3.558598376107253</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.7035910366634861</v>
+        <v>8.003384453638828</v>
       </c>
       <c r="C39">
-        <v>0.07324763917020924</v>
+        <v>1.458410061021295</v>
       </c>
       <c r="D39">
-        <v>0.9449605916274947</v>
+        <v>1.61612296250025</v>
       </c>
       <c r="E39">
-        <v>1.453402385017487</v>
+        <v>5.844657500285448</v>
       </c>
       <c r="F39">
-        <v>1.730845945765626</v>
+        <v>3.593538365257028</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.6785236217497713</v>
+        <v>8.185972859938845</v>
       </c>
       <c r="C40">
-        <v>0.07074781729201202</v>
+        <v>1.44581620608257</v>
       </c>
       <c r="D40">
-        <v>0.9389326598657647</v>
+        <v>1.59626390466437</v>
       </c>
       <c r="E40">
-        <v>1.443890413735636</v>
+        <v>5.969309737840399</v>
       </c>
       <c r="F40">
-        <v>1.72214082532364</v>
+        <v>3.627300196185568</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.6541056148942068</v>
+        <v>8.368470991180775</v>
       </c>
       <c r="C41">
-        <v>0.06853687044147319</v>
+        <v>1.433282923823259</v>
       </c>
       <c r="D41">
-        <v>0.9329394002721363</v>
+        <v>1.576581291557221</v>
       </c>
       <c r="E41">
-        <v>1.434427888962622</v>
+        <v>6.093854568680392</v>
       </c>
       <c r="F41">
-        <v>1.713471943298775</v>
+        <v>3.659917018958181</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.6303330358659879</v>
+        <v>8.55087495011573</v>
       </c>
       <c r="C42">
-        <v>0.06656561351335662</v>
+        <v>1.420810390338947</v>
       </c>
       <c r="D42">
-        <v>0.9269807673989193</v>
+        <v>1.557074751702638</v>
       </c>
       <c r="E42">
-        <v>1.425014684658663</v>
+        <v>6.218293519196307</v>
       </c>
       <c r="F42">
-        <v>1.704839213760088</v>
+        <v>3.691420878685297</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.6072013418076694</v>
+        <v>8.733180102558954</v>
       </c>
       <c r="C43">
-        <v>0.06479320305335781</v>
+        <v>1.408398779093748</v>
       </c>
       <c r="D43">
-        <v>0.9210566956623719</v>
+        <v>1.537743896017186</v>
       </c>
       <c r="E43">
-        <v>1.415650674367079</v>
+        <v>6.342627991335625</v>
       </c>
       <c r="F43">
-        <v>1.696242549323711</v>
+        <v>3.721842761203822</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.584705439365471</v>
+        <v>8.915380997131161</v>
       </c>
       <c r="C44">
-        <v>0.06318597620333422</v>
+        <v>1.396048260110473</v>
       </c>
       <c r="D44">
-        <v>0.915167101873567</v>
+        <v>1.518588320238081</v>
       </c>
       <c r="E44">
-        <v>1.406335730629174</v>
+        <v>6.466859257835638</v>
       </c>
       <c r="F44">
-        <v>1.687681861843272</v>
+        <v>3.751212637156885</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.5628396977082799</v>
+        <v>9.097471287449508</v>
       </c>
       <c r="C45">
-        <v>0.06171634908337108</v>
+        <v>1.383759001139865</v>
       </c>
       <c r="D45">
-        <v>0.9093118935497001</v>
+        <v>1.49960760282984</v>
       </c>
       <c r="E45">
-        <v>1.397069724985593</v>
+        <v>6.590988458999808</v>
       </c>
       <c r="F45">
-        <v>1.679157062582578</v>
+        <v>3.779559504797291</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.5415979627915898</v>
+        <v>9.279443592041277</v>
       </c>
       <c r="C46">
-        <v>0.06036183624969328</v>
+        <v>1.371531168081295</v>
       </c>
       <c r="D46">
-        <v>0.9034909612975396</v>
+        <v>1.480801305328449</v>
       </c>
       <c r="E46">
-        <v>1.387852528123632</v>
+        <v>6.715016591563225</v>
       </c>
       <c r="F46">
-        <v>1.670668062244364</v>
+        <v>3.806911430308136</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.5209735733023776</v>
+        <v>9.46128940929882</v>
       </c>
       <c r="C47">
-        <v>0.05910417041970761</v>
+        <v>1.35936492365856</v>
       </c>
       <c r="D47">
-        <v>0.8977041902366329</v>
+        <v>1.462168972497665</v>
       </c>
       <c r="E47">
-        <v>1.378684009909721</v>
+        <v>6.838944501964787</v>
       </c>
       <c r="F47">
-        <v>1.662214770983382</v>
+        <v>3.833295586809675</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.5009593781701266</v>
+        <v>9.642998969331204</v>
       </c>
       <c r="C48">
-        <v>0.05792857357328737</v>
+        <v>1.347260428946596</v>
       </c>
       <c r="D48">
-        <v>0.891951454617668</v>
+        <v>1.443710132217205</v>
       </c>
       <c r="E48">
-        <v>1.369564039478399</v>
+        <v>6.962772876338057</v>
       </c>
       <c r="F48">
-        <v>1.653797098443442</v>
+        <v>3.858738291406182</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.4815477536176617</v>
+        <v>9.824561076921187</v>
       </c>
       <c r="C49">
-        <v>0.05682311579996557</v>
+        <v>1.335217841397438</v>
       </c>
       <c r="D49">
-        <v>0.8862326234865402</v>
+        <v>1.425424296560832</v>
       </c>
       <c r="E49">
-        <v>1.360492485262924</v>
+        <v>7.086502223531829</v>
       </c>
       <c r="F49">
-        <v>1.645414953871211</v>
+        <v>3.883265040370496</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.4627306242917756</v>
+        <v>10.00596299447502</v>
       </c>
       <c r="C50">
-        <v>0.05577816877268588</v>
+        <v>1.323237316831317</v>
       </c>
       <c r="D50">
-        <v>0.8805475607121029</v>
+        <v>1.407310961670461</v>
       </c>
       <c r="E50">
-        <v>1.351469214891268</v>
+        <v>7.210132864237944</v>
       </c>
       <c r="F50">
-        <v>1.637068246113134</v>
+        <v>3.906900542395233</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.4444994776833108</v>
+        <v>10.18719021429518</v>
       </c>
       <c r="C51">
-        <v>0.05478595941992609</v>
+        <v>1.311319007456561</v>
       </c>
       <c r="D51">
-        <v>0.8748961258703069</v>
+        <v>1.389369608028542</v>
       </c>
       <c r="E51">
-        <v>1.34249409520666</v>
+        <v>7.333664909216385</v>
       </c>
       <c r="F51">
-        <v>1.628756883774633</v>
+        <v>3.929668750351285</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.4268456653848549</v>
+        <v>10.36822629344292</v>
       </c>
       <c r="C52">
-        <v>0.05384027544331887</v>
+        <v>1.299463063455135</v>
       </c>
       <c r="D52">
-        <v>0.8692782115779517</v>
+        <v>1.371599700434316</v>
       </c>
       <c r="E52">
-        <v>1.333566992284446</v>
+        <v>7.457098233813709</v>
       </c>
       <c r="F52">
-        <v>1.620480788089971</v>
+        <v>3.951592890785435</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.4097788707410386</v>
+        <v>10.54905265547273</v>
       </c>
       <c r="C53">
-        <v>0.1873744903801602</v>
+        <v>1.28766963178193</v>
       </c>
       <c r="D53">
-        <v>0.8637146505995406</v>
+        <v>1.354000687939614</v>
       </c>
       <c r="E53">
-        <v>1.324687771430142</v>
+        <v>7.580432459873323</v>
       </c>
       <c r="F53">
-        <v>1.612239933410939</v>
+        <v>3.972695491241598</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.3932676149690146</v>
+        <v>10.72964830935102</v>
       </c>
       <c r="C54">
-        <v>0.3031572329857372</v>
+        <v>1.275938856732376</v>
       </c>
       <c r="D54">
-        <v>0.8581828012285245</v>
+        <v>1.336572004116511</v>
       </c>
       <c r="E54">
-        <v>1.31585629719977</v>
+        <v>7.703666913726584</v>
       </c>
       <c r="F54">
-        <v>1.60403423541286</v>
+        <v>3.992998407206307</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.3773023913219836</v>
+        <v>10.90998966167875</v>
       </c>
       <c r="C55">
-        <v>0.4087515074026697</v>
+        <v>1.264270879668252</v>
       </c>
       <c r="D55">
-        <v>0.8526824751551474</v>
+        <v>1.319313067122492</v>
       </c>
       <c r="E55">
-        <v>1.307072433431344</v>
+        <v>7.826800587711729</v>
       </c>
       <c r="F55">
-        <v>1.595863531766732</v>
+        <v>4.012522847503972</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.3618730459530952</v>
+        <v>11.09005019551027</v>
       </c>
       <c r="C56">
-        <v>0.5072248846537755</v>
+        <v>1.252665838874798</v>
       </c>
       <c r="D56">
-        <v>0.8472135937976474</v>
+        <v>1.30222327995845</v>
       </c>
       <c r="E56">
-        <v>1.298336043241554</v>
+        <v>7.949832107399774</v>
       </c>
       <c r="F56">
-        <v>1.587727725895596</v>
+        <v>4.031289399118213</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.3469692221517594</v>
+        <v>11.26980016888196</v>
       </c>
       <c r="C57">
-        <v>0.6001863473751049</v>
+        <v>1.241123869670199</v>
       </c>
       <c r="D57">
-        <v>0.8417762269821124</v>
+        <v>1.285302030603439</v>
       </c>
       <c r="E57">
-        <v>1.28964698902767</v>
+        <v>8.072759654039858</v>
       </c>
       <c r="F57">
-        <v>1.57962667822637</v>
+        <v>4.049318045072489</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.332580235792337</v>
+        <v>11.44920636362567</v>
       </c>
       <c r="C58">
-        <v>0.6886084780753959</v>
+        <v>1.22964510420177</v>
       </c>
       <c r="D58">
-        <v>0.8363703318141249</v>
+        <v>1.268548692118711</v>
       </c>
       <c r="E58">
-        <v>1.281005132487372</v>
+        <v>8.195580913710019</v>
       </c>
       <c r="F58">
-        <v>1.571560299363662</v>
+        <v>4.066628194247196</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.3186951696569454</v>
+        <v>11.62823164749983</v>
       </c>
       <c r="C59">
-        <v>0.7731362902737559</v>
+        <v>1.218229671442819</v>
       </c>
       <c r="D59">
-        <v>0.8309958312213077</v>
+        <v>1.251962622811815</v>
       </c>
       <c r="E59">
-        <v>1.272410334603505</v>
+        <v>8.318292996666235</v>
       </c>
       <c r="F59">
-        <v>1.563528496718285</v>
+        <v>4.08323868578844</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.3053029002631079</v>
+        <v>11.80683467855853</v>
       </c>
       <c r="C60">
-        <v>0.8542268561294751</v>
+        <v>1.20687769719024</v>
       </c>
       <c r="D60">
-        <v>0.8256526490174211</v>
+        <v>1.235543166346982</v>
       </c>
       <c r="E60">
-        <v>1.26386245568727</v>
+        <v>8.440892317382792</v>
       </c>
       <c r="F60">
-        <v>1.555531184510665</v>
+        <v>4.099167825687235</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.2923921219308593</v>
+        <v>11.98496950236237</v>
       </c>
       <c r="C61">
-        <v>0.9322207777501887</v>
+        <v>1.195589303911029</v>
       </c>
       <c r="D61">
-        <v>0.8203407149937524</v>
+        <v>1.21928965193773</v>
       </c>
       <c r="E61">
-        <v>1.25536135534916</v>
+        <v>8.563374513645197</v>
       </c>
       <c r="F61">
-        <v>1.547568287340932</v>
+        <v>4.114433386729559</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.2799513722675582</v>
+        <v>12.16258510222077</v>
       </c>
       <c r="C62">
-        <v>1.007381949374439</v>
+        <v>1.184364610795968</v>
       </c>
       <c r="D62">
-        <v>0.8150599500669219</v>
+        <v>1.203201394455814</v>
       </c>
       <c r="E62">
-        <v>1.246906892538679</v>
+        <v>8.68573427555468</v>
       </c>
       <c r="F62">
-        <v>1.53963971233986</v>
+        <v>4.129052639858972</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.2679690661375403</v>
+        <v>12.33962504983232</v>
       </c>
       <c r="C63">
-        <v>1.079921451100118</v>
+        <v>1.173203733635595</v>
       </c>
       <c r="D63">
-        <v>0.8098102621463662</v>
+        <v>1.187277694712943</v>
       </c>
       <c r="E63">
-        <v>1.238498925532754</v>
+        <v>8.807965155244563</v>
       </c>
       <c r="F63">
-        <v>1.531745370919802</v>
+        <v>4.143042360972107</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.2564335270767691</v>
+        <v>12.51602698784407</v>
       </c>
       <c r="C64">
-        <v>1.150012529378169</v>
+        <v>1.162106784781956</v>
       </c>
       <c r="D64">
-        <v>0.8045915513666991</v>
+        <v>1.171517839469745</v>
       </c>
       <c r="E64">
-        <v>1.230137311955434</v>
+        <v>8.93005945172643</v>
       </c>
       <c r="F64">
-        <v>1.523885160547193</v>
+        <v>4.156418852860726</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.2453330147618567</v>
+        <v>12.69172220603708</v>
       </c>
       <c r="C65">
-        <v>1.217800522928217</v>
+        <v>1.15107387310713</v>
       </c>
       <c r="D65">
-        <v>0.7994037093954303</v>
+        <v>1.155921101842321</v>
       </c>
       <c r="E65">
-        <v>1.221821908785601</v>
+        <v>9.052007826662917</v>
       </c>
       <c r="F65">
-        <v>1.516058988929807</v>
+        <v>4.169197956081996</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.234655752167348</v>
+        <v>12.86663521082904</v>
       </c>
       <c r="C66">
-        <v>1.283409576250806</v>
+        <v>1.140105103913796</v>
       </c>
       <c r="D66">
-        <v>0.7942466241049927</v>
+        <v>1.140486741261602</v>
       </c>
       <c r="E66">
-        <v>1.213552572364021</v>
+        <v>9.173799049370785</v>
       </c>
       <c r="F66">
-        <v>1.508266753696246</v>
+        <v>4.181395065000717</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.2243899670631533</v>
+        <v>13.04068321594643</v>
       </c>
       <c r="C67">
-        <v>1.346947304751625</v>
+        <v>1.129200578899621</v>
       </c>
       <c r="D67">
-        <v>0.7891201796134681</v>
+        <v>1.125214003880719</v>
       </c>
       <c r="E67">
-        <v>1.205329158406684</v>
+        <v>9.295419625266275</v>
       </c>
       <c r="F67">
-        <v>1.500508363597095</v>
+        <v>4.193025141423483</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.2145238692593344</v>
+        <v>13.21377574795068</v>
       </c>
       <c r="C68">
-        <v>1.408508266394925</v>
+        <v>1.118360396096217</v>
       </c>
       <c r="D68">
-        <v>0.7840242556161995</v>
+        <v>1.110102122603842</v>
       </c>
       <c r="E68">
-        <v>1.197151522010978</v>
+        <v>9.416853349637679</v>
       </c>
       <c r="F68">
-        <v>1.492783724357206</v>
+        <v>4.204102725241476</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.2050457220119525</v>
+        <v>13.38581418581131</v>
       </c>
       <c r="C69">
-        <v>1.468176454216502</v>
+        <v>1.107584649807116</v>
       </c>
       <c r="D69">
-        <v>0.7789587293954032</v>
+        <v>1.095150317416803</v>
       </c>
       <c r="E69">
-        <v>1.1890195176663</v>
+        <v>9.538080754328277</v>
       </c>
       <c r="F69">
-        <v>1.485092744603785</v>
+        <v>4.214641951761944</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.1959438365367953</v>
+        <v>13.55669143942763</v>
       </c>
       <c r="C70">
-        <v>1.526027173483087</v>
+        <v>1.096873430567269</v>
       </c>
       <c r="D70">
-        <v>0.7739234750619096</v>
+        <v>1.080357795503537</v>
       </c>
       <c r="E70">
-        <v>1.180932999263223</v>
+        <v>9.659078451985486</v>
       </c>
       <c r="F70">
-        <v>1.477435330183755</v>
+        <v>4.224656558493751</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.1872066356384095</v>
+        <v>13.72629153174798</v>
       </c>
       <c r="C71">
-        <v>1.582128526106266</v>
+        <v>1.086226825082059</v>
       </c>
       <c r="D71">
-        <v>0.768918364037832</v>
+        <v>1.065723751536596</v>
       </c>
       <c r="E71">
-        <v>1.172891820102</v>
+        <v>9.779818338117366</v>
       </c>
       <c r="F71">
-        <v>1.469811388091281</v>
+        <v>4.234159902309584</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.1788226414785434</v>
+        <v>13.89448943120485</v>
       </c>
       <c r="C72">
-        <v>1.636542537165556</v>
+        <v>1.075644916176367</v>
       </c>
       <c r="D72">
-        <v>0.7639432652240209</v>
+        <v>1.05124736782738</v>
       </c>
       <c r="E72">
-        <v>1.164895832903033</v>
+        <v>9.900266664152342</v>
       </c>
       <c r="F72">
-        <v>1.462220823099778</v>
+        <v>4.243164966718195</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.1707804980577843</v>
+        <v>14.06115090375374</v>
       </c>
       <c r="C73">
-        <v>1.689326006603139</v>
+        <v>1.065127782747587</v>
       </c>
       <c r="D73">
-        <v>0.7589980455817745</v>
+        <v>1.036927814640608</v>
       </c>
       <c r="E73">
-        <v>1.156944889815511</v>
+        <v>10.02038294567943</v>
       </c>
       <c r="F73">
-        <v>1.45466353873088</v>
+        <v>4.251684376691165</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.1630689864351403</v>
+        <v>14.22613228709777</v>
       </c>
       <c r="C74">
-        <v>1.740531241472772</v>
+        <v>1.054675499705421</v>
       </c>
       <c r="D74">
-        <v>0.7540825704233685</v>
+        <v>1.02276425032962</v>
       </c>
       <c r="E74">
-        <v>1.149038842427881</v>
+        <v>10.14011868625849</v>
       </c>
       <c r="F74">
-        <v>1.447139439745581</v>
+        <v>4.259730406669636</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.1556770395792689</v>
+        <v>14.38928092262367</v>
       </c>
       <c r="C75">
-        <v>1.790206647110816</v>
+        <v>1.044288137927074</v>
       </c>
       <c r="D75">
-        <v>0.7491967034710535</v>
+        <v>1.008755821685047</v>
       </c>
       <c r="E75">
-        <v>1.14117754177683</v>
+        <v>10.25941590880656</v>
       </c>
       <c r="F75">
-        <v>1.439648429825434</v>
+        <v>4.267314993201267</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.1485937659578568</v>
+        <v>14.55043506447022</v>
       </c>
       <c r="C76">
-        <v>1.83839720409826</v>
+        <v>1.033965764202519</v>
       </c>
       <c r="D76">
-        <v>0.7443403072207658</v>
+        <v>0.9949016640688263</v>
       </c>
       <c r="E76">
-        <v>1.133360838357675</v>
+        <v>10.37820549137714</v>
       </c>
       <c r="F76">
-        <v>1.432190413993032</v>
+        <v>4.27444974397932</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.1418084538111934</v>
+        <v>14.70942452250435</v>
       </c>
       <c r="C77">
-        <v>1.885144854310066</v>
+        <v>1.023708441186205</v>
       </c>
       <c r="D77">
-        <v>0.7395132431382648</v>
+        <v>0.9812009017684122</v>
       </c>
       <c r="E77">
-        <v>1.125588582133453</v>
+        <v>10.49640531326677</v>
       </c>
       <c r="F77">
-        <v>1.424765296491034</v>
+        <v>4.281145947849783</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.1353105946659</v>
+        <v>14.86607132625771</v>
       </c>
       <c r="C78">
-        <v>1.930488835939576</v>
+        <v>1.013516227346205</v>
       </c>
       <c r="D78">
-        <v>0.7347153718908132</v>
+        <v>0.9676526481518892</v>
       </c>
       <c r="E78">
-        <v>1.117860622545052</v>
+        <v>10.61391822920903</v>
       </c>
       <c r="F78">
-        <v>1.417372982495531</v>
+        <v>4.287414585591077</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.1290898847235841</v>
+        <v>15.02019074569472</v>
       </c>
       <c r="C79">
-        <v>1.974465965311223</v>
+        <v>1.003389176920466</v>
       </c>
       <c r="D79">
-        <v>0.7299465529813061</v>
+        <v>0.9542560060131038</v>
       </c>
       <c r="E79">
-        <v>1.110176808520721</v>
+        <v>10.73062994904568</v>
       </c>
       <c r="F79">
-        <v>1.410013376077166</v>
+        <v>4.293266337182103</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.1231362383504347</v>
+        <v>15.17159249077443</v>
       </c>
       <c r="C80">
-        <v>2.017110876302236</v>
+        <v>0.9933273398620034</v>
       </c>
       <c r="D80">
-        <v>0.7252066456190887</v>
+        <v>0.941010067750724</v>
       </c>
       <c r="E80">
-        <v>1.102536988485872</v>
+        <v>10.84640672460456</v>
       </c>
       <c r="F80">
-        <v>1.402686381604098</v>
+        <v>4.298711593714003</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.1174397989685257</v>
+        <v>15.3200820215219</v>
       </c>
       <c r="C81">
-        <v>2.058456221107192</v>
+        <v>0.983330761804788</v>
       </c>
       <c r="D81">
-        <v>0.7204955081027414</v>
+        <v>0.927913915710169</v>
       </c>
       <c r="E81">
-        <v>1.094941010372803</v>
+        <v>10.9610932025075</v>
       </c>
       <c r="F81">
-        <v>1.395391902882969</v>
+        <v>4.303760463240983</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.1119909351261281</v>
+        <v>15.46546230885791</v>
       </c>
       <c r="C82">
-        <v>2.098532855890037</v>
+        <v>0.9733994840036871</v>
       </c>
       <c r="D82">
-        <v>0.7158129983157332</v>
+        <v>0.9149666223765456</v>
       </c>
       <c r="E82">
-        <v>1.087388721630703</v>
+        <v>11.07451040683381</v>
       </c>
       <c r="F82">
-        <v>1.388129843651023</v>
+        <v>4.308422781579324</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.1067802610271065</v>
+        <v>15.60753587991425</v>
       </c>
       <c r="C83">
-        <v>2.137370004536409</v>
+        <v>0.9635335433073563</v>
       </c>
       <c r="D83">
-        <v>0.7111589740069409</v>
+        <v>0.9021672507218678</v>
       </c>
       <c r="E83">
-        <v>1.079879969235199</v>
+        <v>11.18645399084037</v>
       </c>
       <c r="F83">
-        <v>1.380900107472617</v>
+        <v>4.312708117950221</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.1017986231420448</v>
+        <v>15.74610710206219</v>
       </c>
       <c r="C84">
-        <v>2.174995386859263</v>
+        <v>0.9537329720971479</v>
       </c>
       <c r="D84">
-        <v>0.7065332923007585</v>
+        <v>0.8895148544058116</v>
       </c>
       <c r="E84">
-        <v>1.07241459969867</v>
+        <v>11.29669305859135</v>
       </c>
       <c r="F84">
-        <v>1.373702592921487</v>
+        <v>4.316625789499518</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.09703711241859603</v>
+        <v>15.88098464898912</v>
       </c>
       <c r="C85">
-        <v>2.211435275767588</v>
+        <v>0.9439977982633186</v>
       </c>
       <c r="D85">
-        <v>0.7019357952326665</v>
+        <v>0.8770084781274675</v>
       </c>
       <c r="E85">
-        <v>1.06499245907951</v>
+        <v>11.4049697625562</v>
       </c>
       <c r="F85">
-        <v>1.366537199651388</v>
+        <v>4.320184859260618</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.09248463389588303</v>
+        <v>16.01198414752521</v>
       </c>
       <c r="C86">
-        <v>2.140320720815002</v>
+        <v>0.9343280451452153</v>
       </c>
       <c r="D86">
-        <v>0.6973622660596359</v>
+        <v>0.8646471578360887</v>
       </c>
       <c r="E86">
-        <v>1.057613392992044</v>
+        <v>11.51100000732817</v>
       </c>
       <c r="F86">
-        <v>1.359403829281085</v>
+        <v>4.323394151747512</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.08813544089923243</v>
+        <v>16.13893091995494</v>
       </c>
       <c r="C87">
-        <v>2.069426272273782</v>
+        <v>0.9247237315111821</v>
       </c>
       <c r="D87">
-        <v>0.6928167447861797</v>
+        <v>0.8524299210811421</v>
       </c>
       <c r="E87">
-        <v>1.050277246617356</v>
+        <v>11.6144755045705</v>
       </c>
       <c r="F87">
-        <v>1.352302391962716</v>
+        <v>4.326262265356168</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.08398140912493827</v>
+        <v>16.26166274561648</v>
       </c>
       <c r="C88">
-        <v>1.998768464215111</v>
+        <v>0.9151848714986823</v>
       </c>
       <c r="D88">
-        <v>0.6882991627140301</v>
+        <v>0.8403557872368229</v>
       </c>
       <c r="E88">
-        <v>1.042983864713843</v>
+        <v>11.71506749503416</v>
       </c>
       <c r="F88">
-        <v>1.345232794016577</v>
+        <v>4.328797554159132</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.08001446692213278</v>
+        <v>16.38003258614675</v>
       </c>
       <c r="C89">
-        <v>1.928364764940523</v>
+        <v>0.9057114746002766</v>
       </c>
       <c r="D89">
-        <v>0.6838093564873636</v>
+        <v>0.8284237678464195</v>
       </c>
       <c r="E89">
-        <v>1.035733091625364</v>
+        <v>11.81243235993732</v>
       </c>
       <c r="F89">
-        <v>1.338194937998909</v>
+        <v>4.331008170410997</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.07622705203498699</v>
+        <v>16.49391115463078</v>
       </c>
       <c r="C90">
-        <v>1.858233983951004</v>
+        <v>0.8963035456021619</v>
       </c>
       <c r="D90">
-        <v>0.6793471628585889</v>
+        <v>0.8166328668608258</v>
       </c>
       <c r="E90">
-        <v>1.028524771292035</v>
+        <v>11.90621910188568</v>
       </c>
       <c r="F90">
-        <v>1.331188729196626</v>
+        <v>4.33290204959388</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.07261174099204111</v>
+        <v>16.6031892423109</v>
       </c>
       <c r="C91">
-        <v>1.788396523829176</v>
+        <v>0.8869610845770217</v>
       </c>
       <c r="D91">
-        <v>0.6749124198162406</v>
+        <v>0.804982080977114</v>
       </c>
       <c r="E91">
-        <v>1.021358747260083</v>
+        <v>11.9960788187781</v>
       </c>
       <c r="F91">
-        <v>1.324214075569464</v>
+        <v>4.334486908759744</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.06916133515264261</v>
+        <v>16.70777975689976</v>
       </c>
       <c r="C92">
-        <v>1.718874559777299</v>
+        <v>0.8776840868214311</v>
       </c>
       <c r="D92">
-        <v>0.6705049819655469</v>
+        <v>0.7934703998887666</v>
       </c>
       <c r="E92">
-        <v>1.014234862691456</v>
+        <v>12.08167568798386</v>
       </c>
       <c r="F92">
-        <v>1.317270877246512</v>
+        <v>4.335770279597059</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.06586889387934845</v>
+        <v>16.80761925425682</v>
       </c>
       <c r="C93">
-        <v>1.649692229587778</v>
+        <v>0.8684725428546165</v>
       </c>
       <c r="D93">
-        <v>0.6661247087213797</v>
+        <v>0.782096806619068</v>
       </c>
       <c r="E93">
-        <v>1.00715296037473</v>
+        <v>12.16269898275556</v>
       </c>
       <c r="F93">
-        <v>1.310359038183677</v>
+        <v>4.336759492819927</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.06272772782426823</v>
+        <v>16.90266906046818</v>
       </c>
       <c r="C94">
-        <v>1.580875915583374</v>
+        <v>0.8593264383560855</v>
       </c>
       <c r="D94">
-        <v>0.6617714562613604</v>
+        <v>0.7708602777813279</v>
       </c>
       <c r="E94">
-        <v>1.000112882733884</v>
+        <v>12.23887529161276</v>
       </c>
       <c r="F94">
-        <v>1.303478460863412</v>
+        <v>4.337461687440938</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.05973138252801843</v>
+        <v>16.99291586617712</v>
       </c>
       <c r="C95">
-        <v>1.512454528713475</v>
+        <v>0.8502457541694012</v>
       </c>
       <c r="D95">
-        <v>0.6574450778483445</v>
+        <v>0.7597597839061658</v>
       </c>
       <c r="E95">
-        <v>0.9931144718384596</v>
+        <v>12.30998004808657</v>
       </c>
       <c r="F95">
-        <v>1.296629048347043</v>
+        <v>4.33788382778523</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.056873632307473</v>
+        <v>17.07837177575255</v>
       </c>
       <c r="C96">
-        <v>1.444459785821445</v>
+        <v>0.8412304662407768</v>
       </c>
       <c r="D96">
-        <v>0.6531454282530132</v>
+        <v>0.7487942897114283</v>
       </c>
       <c r="E96">
-        <v>0.986157569416094</v>
+        <v>12.3758473344838</v>
       </c>
       <c r="F96">
-        <v>1.289810700208481</v>
+        <v>4.338032694114562</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.05414848331461344</v>
+        <v>17.15907380180476</v>
       </c>
       <c r="C97">
-        <v>1.376926628632252</v>
+        <v>0.8322805456278584</v>
       </c>
       <c r="D97">
-        <v>0.6488723590076416</v>
+        <v>0.7379627544214601</v>
       </c>
       <c r="E97">
-        <v>0.9792420168581668</v>
+        <v>12.43637703133286</v>
       </c>
       <c r="F97">
-        <v>1.28302332060724</v>
+        <v>4.337914898099791</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.05155015544887517</v>
+        <v>17.23508296909784</v>
       </c>
       <c r="C98">
-        <v>1.309893709912797</v>
+        <v>0.8233959584397391</v>
       </c>
       <c r="D98">
-        <v>0.6446257267361535</v>
+        <v>0.7272641320467239</v>
       </c>
       <c r="E98">
-        <v>0.9723676552325641</v>
+        <v>12.49153860914598</v>
       </c>
       <c r="F98">
-        <v>1.27626681136581</v>
+        <v>4.337536887837667</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.04907308757235995</v>
+        <v>17.30648270234186</v>
       </c>
       <c r="C99">
-        <v>1.243403909421992</v>
+        <v>0.8145766658491058</v>
       </c>
       <c r="D99">
-        <v>0.6404053832292177</v>
+        <v>0.7166973716935682</v>
       </c>
       <c r="E99">
-        <v>0.9655343252948957</v>
+        <v>12.54137136969613</v>
       </c>
       <c r="F99">
-        <v>1.269541074609653</v>
+        <v>4.336904941611896</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.04671193217999977</v>
+        <v>17.37337703519011</v>
       </c>
       <c r="C100">
-        <v>1.177504907211263</v>
+        <v>0.8058226240378713</v>
       </c>
       <c r="D100">
-        <v>0.6362111861159248</v>
+        <v>0.7062614178527026</v>
       </c>
       <c r="E100">
-        <v>0.9587418674950197</v>
+        <v>12.58598106578608</v>
       </c>
       <c r="F100">
-        <v>1.262846013070919</v>
+        <v>4.336025189908418</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.04446155175998191</v>
+        <v>17.43588843757355</v>
       </c>
       <c r="C101">
-        <v>1.11224985508446</v>
+        <v>0.7971337842076416</v>
       </c>
       <c r="D101">
-        <v>0.6320429904949956</v>
+        <v>0.6959552106971526</v>
       </c>
       <c r="E101">
-        <v>0.9519901219894185</v>
+        <v>12.62553332713602</v>
       </c>
       <c r="F101">
-        <v>1.256181530220301</v>
+        <v>4.33490360872457</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.04231701045410709</v>
+        <v>17.49415541152604</v>
       </c>
       <c r="C102">
-        <v>1.047698177345628</v>
+        <v>0.7885100925355989</v>
       </c>
       <c r="D102">
-        <v>0.6279006543859822</v>
+        <v>0.6857776863827644</v>
       </c>
       <c r="E102">
-        <v>0.9452789286509294</v>
+        <v>12.66024473795584</v>
       </c>
       <c r="F102">
-        <v>1.249547528689303</v>
+        <v>4.333546021134746</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.0402735675017899</v>
+        <v>17.54832994099605</v>
       </c>
       <c r="C103">
-        <v>0.9839165134350717</v>
+        <v>0.7799514901972618</v>
       </c>
       <c r="D103">
-        <v>0.6237840353506361</v>
+        <v>0.6757277773401139</v>
       </c>
       <c r="E103">
-        <v>0.9386081270781372</v>
+        <v>12.69037238843082</v>
       </c>
       <c r="F103">
-        <v>1.242943910815247</v>
+        <v>4.331958115326167</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.03832667256723932</v>
+        <v>17.59857491626326</v>
       </c>
       <c r="C104">
-        <v>0.9209797909209936</v>
+        <v>0.7714579133037288</v>
       </c>
       <c r="D104">
-        <v>0.6196929919730778</v>
+        <v>0.6658044125467667</v>
       </c>
       <c r="E104">
-        <v>0.9319775566055035</v>
+        <v>12.71620289700731</v>
       </c>
       <c r="F104">
-        <v>1.236370580154099</v>
+        <v>4.330145435698157</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.03647196259760026</v>
+        <v>17.64506151248152</v>
       </c>
       <c r="C105">
-        <v>0.8589724711371917</v>
+        <v>0.7630292928835103</v>
       </c>
       <c r="D105">
-        <v>0.6156273829790632</v>
+        <v>0.6560065178696124</v>
       </c>
       <c r="E105">
-        <v>0.9253870563130157</v>
+        <v>12.73804157294214</v>
       </c>
       <c r="F105">
-        <v>1.229827438640622</v>
+        <v>4.328113390686212</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.03470525069318211</v>
+        <v>17.68796674170489</v>
       </c>
       <c r="C106">
-        <v>0.7979899455630886</v>
+        <v>0.7546655549732845</v>
       </c>
       <c r="D106">
-        <v>0.6115870677754135</v>
+        <v>0.6463330163246759</v>
       </c>
       <c r="E106">
-        <v>0.9188364650370409</v>
+        <v>12.75620251592258</v>
       </c>
       <c r="F106">
-        <v>1.223314388887184</v>
+        <v>4.325867263170899</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.03302251765510572</v>
+        <v>17.72747112122601</v>
       </c>
       <c r="C107">
-        <v>0.7381401247637224</v>
+        <v>0.7463666204834494</v>
       </c>
       <c r="D107">
-        <v>0.6075719061061415</v>
+        <v>0.6367828283073893</v>
       </c>
       <c r="E107">
-        <v>0.9123256213790347</v>
+        <v>12.7710000333596</v>
       </c>
       <c r="F107">
-        <v>1.216831333152582</v>
+        <v>4.323412202356339</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.03141992970706652</v>
+        <v>17.76375653415992</v>
       </c>
       <c r="C108">
-        <v>0.6795452024018049</v>
+        <v>0.7381324051777273</v>
       </c>
       <c r="D108">
-        <v>0.6035817582753714</v>
+        <v>0.6273548720185083</v>
       </c>
       <c r="E108">
-        <v>0.9058543637157874</v>
+        <v>12.78274163026984</v>
       </c>
       <c r="F108">
-        <v>1.210378173980764</v>
+        <v>4.320753238157812</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.02989378891726835</v>
+        <v>17.79700432528986</v>
       </c>
       <c r="C109">
-        <v>0.6223435536298696</v>
+        <v>0.729962819846828</v>
       </c>
       <c r="D109">
-        <v>0.5996164852180002</v>
+        <v>0.6180480636617416</v>
       </c>
       <c r="E109">
-        <v>0.8994225302100587</v>
+        <v>12.79172251123921</v>
       </c>
       <c r="F109">
-        <v>1.203954813187208</v>
+        <v>4.317895281551073</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.02844058608696792</v>
+        <v>17.82739358043327</v>
       </c>
       <c r="C110">
-        <v>0.5666916841349653</v>
+        <v>0.7218577701661573</v>
       </c>
       <c r="D110">
-        <v>0.5956759483178837</v>
+        <v>0.6088613176259966</v>
       </c>
       <c r="E110">
-        <v>0.893029958819143</v>
+        <v>12.79822171739077</v>
       </c>
       <c r="F110">
-        <v>1.197561153202618</v>
+        <v>4.314843121519703</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.02705695762001567</v>
+        <v>17.85509974181024</v>
       </c>
       <c r="C111">
-        <v>0.5127660803204677</v>
+        <v>0.713817156605338</v>
       </c>
       <c r="D111">
-        <v>0.5917600096693741</v>
+        <v>0.5997935470080996</v>
       </c>
       <c r="E111">
-        <v>0.8866764873055152</v>
+        <v>12.80249956338182</v>
       </c>
       <c r="F111">
-        <v>1.191197096388627</v>
+        <v>4.311601440160291</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.02573966880646513</v>
+        <v>17.8802934135343</v>
       </c>
       <c r="C112">
-        <v>0.4607647157099843</v>
+        <v>0.7058408746550799</v>
       </c>
       <c r="D112">
-        <v>0.5878685318574554</v>
+        <v>0.5908436637397276</v>
       </c>
       <c r="E112">
-        <v>0.8803619532468637</v>
+        <v>12.80479623468493</v>
       </c>
       <c r="F112">
-        <v>1.184862544926472</v>
+        <v>4.308174807542195</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.0244856337738178</v>
+        <v>17.90313940003256</v>
       </c>
       <c r="C113">
-        <v>0.4109076221228097</v>
+        <v>0.6979288147423782</v>
       </c>
       <c r="D113">
-        <v>0.5840013780975879</v>
+        <v>0.5820105787261097</v>
       </c>
       <c r="E113">
-        <v>0.8740861940445169</v>
+        <v>12.80533129738154</v>
       </c>
       <c r="F113">
-        <v>1.178557401184761</v>
+        <v>4.304567684216203</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.02329189038560279</v>
+        <v>17.92379596730892</v>
       </c>
       <c r="C114">
-        <v>0.3634361499782801</v>
+        <v>0.6900808620748645</v>
       </c>
       <c r="D114">
-        <v>0.5801584121452148</v>
+        <v>0.5732932024513773</v>
       </c>
       <c r="E114">
-        <v>0.867849046934786</v>
+        <v>12.80430389229173</v>
       </c>
       <c r="F114">
-        <v>1.172281567633575</v>
+        <v>4.300784432012702</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.02215561566454506</v>
+        <v>17.9424143108661</v>
       </c>
       <c r="C115">
-        <v>0.3186095451751033</v>
+        <v>0.6822968968687467</v>
       </c>
       <c r="D115">
-        <v>0.5763394983282163</v>
+        <v>0.5646904450442738</v>
       </c>
       <c r="E115">
-        <v>0.8616503489982579</v>
+        <v>12.80189348062927</v>
       </c>
       <c r="F115">
-        <v>1.166034946691838</v>
+        <v>4.296829308380195</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.02107410749843297</v>
+        <v>17.95913816141598</v>
       </c>
       <c r="C116">
-        <v>0.2766980303592362</v>
+        <v>0.6745767943219751</v>
       </c>
       <c r="D116">
-        <v>0.5725445015643161</v>
+        <v>0.5562012163712262</v>
       </c>
       <c r="E116">
-        <v>0.8554899371676744</v>
+        <v>12.79826090685234</v>
       </c>
       <c r="F116">
-        <v>1.15981744062314</v>
+        <v>4.2927064730893</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.0200447917877252</v>
+        <v>17.9741036058289</v>
       </c>
       <c r="C117">
-        <v>0.2379709233043513</v>
+        <v>0.6669204244424547</v>
       </c>
       <c r="D117">
-        <v>0.5687732873069202</v>
+        <v>0.5478244267163576</v>
       </c>
       <c r="E117">
-        <v>0.8493676482406991</v>
+        <v>12.79354968266932</v>
       </c>
       <c r="F117">
-        <v>1.153628951984794</v>
+        <v>4.288419993717513</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.01906520621425375</v>
+        <v>17.98743900292106</v>
       </c>
       <c r="C118">
-        <v>0.2026784559145741</v>
+        <v>0.659327652249285</v>
       </c>
       <c r="D118">
-        <v>0.5650257215862796</v>
+        <v>0.5395589867909907</v>
       </c>
       <c r="E118">
-        <v>0.8432833188876379</v>
+        <v>12.78788737772315</v>
       </c>
       <c r="F118">
-        <v>1.147469383095988</v>
+        <v>4.283973840184641</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.0181330026639839</v>
+        <v>17.99926500500983</v>
       </c>
       <c r="C119">
-        <v>0.1710275604329775</v>
+        <v>0.6517983377893185</v>
       </c>
       <c r="D119">
-        <v>0.5613016710139743</v>
+        <v>0.5314038077984463</v>
       </c>
       <c r="E119">
-        <v>0.8372367856597213</v>
+        <v>12.7813870466634</v>
       </c>
       <c r="F119">
-        <v>1.14133863633242</v>
+        <v>4.279371896557244</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.01724593571455326</v>
+        <v>18.00969467782275</v>
       </c>
       <c r="C120">
-        <v>0.1431534654421757</v>
+        <v>0.6443323359624236</v>
       </c>
       <c r="D120">
-        <v>0.5576010027515269</v>
+        <v>0.5233578021517202</v>
       </c>
       <c r="E120">
-        <v>0.8312278850020969</v>
+        <v>12.77414863712025</v>
       </c>
       <c r="F120">
-        <v>1.135236614066815</v>
+        <v>4.274617958896885</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.01640186243349236</v>
+        <v>18.0188336944314</v>
       </c>
       <c r="C121">
-        <v>0.1190918439775943</v>
+        <v>0.6369294967127623</v>
       </c>
       <c r="D121">
-        <v>0.5539235845333395</v>
+        <v>0.5154198834479434</v>
       </c>
       <c r="E121">
-        <v>0.8252564532608566</v>
+        <v>12.76626032592989</v>
       </c>
       <c r="F121">
-        <v>1.129163218748329</v>
+        <v>4.269715734603718</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.01559873721045831</v>
+        <v>18.02678057415946</v>
       </c>
       <c r="C122">
-        <v>0.09875885686468572</v>
+        <v>0.629589665100317</v>
       </c>
       <c r="D122">
-        <v>0.5502692846610414</v>
+        <v>0.5075889664757661</v>
       </c>
       <c r="E122">
-        <v>0.8193223266916515</v>
+        <v>12.75779981831229</v>
       </c>
       <c r="F122">
-        <v>1.123118352712651</v>
+        <v>4.264668852498511</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.01483460798400326</v>
+        <v>18.03362697859231</v>
       </c>
       <c r="C123">
-        <v>0.08194670405771388</v>
+        <v>0.6223126810663961</v>
       </c>
       <c r="D123">
-        <v>0.5466379720103295</v>
+        <v>0.4998639679996039</v>
       </c>
       <c r="E123">
-        <v>0.813425341472487</v>
+        <v>12.74883551435512</v>
       </c>
       <c r="F123">
-        <v>1.117101918398929</v>
+        <v>4.259480858919558</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.01410761191988554</v>
+        <v>18.03945802917941</v>
       </c>
       <c r="C124">
-        <v>0.06833817309541146</v>
+        <v>0.6150983796587566</v>
       </c>
       <c r="D124">
-        <v>0.5430295160186641</v>
+        <v>0.492243806687071</v>
       </c>
       <c r="E124">
-        <v>0.8075653337102378</v>
+        <v>12.7394275482206</v>
       </c>
       <c r="F124">
-        <v>1.111113818309754</v>
+        <v>4.254155220322795</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.01341597329627408</v>
+        <v>18.04435263894539</v>
       </c>
       <c r="C125">
-        <v>0.0575386444501467</v>
+        <v>0.607946591143649</v>
       </c>
       <c r="D125">
-        <v>0.539443786692809</v>
+        <v>0.4847274030886392</v>
       </c>
       <c r="E125">
-        <v>0.8017421394498185</v>
+        <v>12.72962875902405</v>
       </c>
       <c r="F125">
-        <v>1.105153954911795</v>
+        <v>4.248695329931977</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.01275799841670465</v>
+        <v>18.04838385894692</v>
       </c>
       <c r="C126">
-        <v>0.04911695097185483</v>
+        <v>0.6008571407250551</v>
       </c>
       <c r="D126">
-        <v>0.5358806546119391</v>
+        <v>0.4773136804213405</v>
       </c>
       <c r="E126">
-        <v>0.7959555946864277</v>
+        <v>12.71948559263726</v>
       </c>
       <c r="F126">
-        <v>1.09922223074505</v>
+        <v>4.243104503901954</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.01213207251058249</v>
+        <v>18.05161922779509</v>
       </c>
       <c r="C127">
-        <v>0.0426451849322533</v>
+        <v>0.5938298487914002</v>
       </c>
       <c r="D127">
-        <v>0.5323399909216201</v>
+        <v>0.4700015645020353</v>
       </c>
       <c r="E127">
-        <v>0.7902055353716011</v>
+        <v>12.70903884067295</v>
       </c>
       <c r="F127">
-        <v>1.093318548398048</v>
+        <v>4.237385986933679</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.01153665670653074</v>
+        <v>18.05412111828964</v>
       </c>
       <c r="C128">
-        <v>0.0377289547745909</v>
+        <v>0.5868645310562003</v>
       </c>
       <c r="D128">
-        <v>0.5288216673372703</v>
+        <v>0.4627899836893449</v>
       </c>
       <c r="E128">
-        <v>0.7844917974231911</v>
+        <v>12.69832432974728</v>
       </c>
       <c r="F128">
-        <v>1.087442810497446</v>
+        <v>4.231542954816766</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.01097028347962947</v>
+        <v>18.05594707891862</v>
       </c>
       <c r="C129">
-        <v>0.03402555950905652</v>
+        <v>0.5799609982606596</v>
       </c>
       <c r="D129">
-        <v>0.525325556134613</v>
+        <v>0.4556778696498616</v>
       </c>
       <c r="E129">
-        <v>0.778814216736748</v>
+        <v>12.68737353916735</v>
       </c>
       <c r="F129">
-        <v>1.081594919664822</v>
+        <v>4.225578511237547</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.01043155307929348</v>
+        <v>18.05715016282997</v>
       </c>
       <c r="C130">
-        <v>0.03125049314579686</v>
+        <v>0.5731190564229182</v>
       </c>
       <c r="D130">
-        <v>0.5218515301652725</v>
+        <v>0.4486641573101592</v>
       </c>
       <c r="E130">
-        <v>0.7731726291910835</v>
+        <v>12.6762141552875</v>
       </c>
       <c r="F130">
-        <v>1.075774778622107</v>
+        <v>4.21949569645495</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.00991913360350055</v>
+        <v>18.0577792450983</v>
       </c>
       <c r="C131">
-        <v>0.02917579237059268</v>
+        <v>0.5663385070001248</v>
       </c>
       <c r="D131">
-        <v>0.51839946284517</v>
+        <v>0.4417477847596387</v>
       </c>
       <c r="E131">
-        <v>0.7675668706594391</v>
+        <v>12.66487052787837</v>
       </c>
       <c r="F131">
-        <v>1.069982290096693</v>
+        <v>4.213297484780616</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.009431757367215618</v>
+        <v>18.05787932607396</v>
       </c>
       <c r="C132">
-        <v>0.02762368159216831</v>
+        <v>0.5596191465919127</v>
       </c>
       <c r="D132">
-        <v>0.5149692281490085</v>
+        <v>0.4349276939915805</v>
       </c>
       <c r="E132">
-        <v>0.7619967770195467</v>
+        <v>12.65336406771441</v>
       </c>
       <c r="F132">
-        <v>1.06421735685714</v>
+        <v>4.206986785135859</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.008968209342744879</v>
+        <v>18.05749181894099</v>
       </c>
       <c r="C133">
-        <v>0.02645834827245896</v>
+        <v>0.5529607671871797</v>
       </c>
       <c r="D133">
-        <v>0.5115607006246502</v>
+        <v>0.4282028308792869</v>
       </c>
       <c r="E133">
-        <v>0.7564621841587543</v>
+        <v>12.64171362488505</v>
       </c>
       <c r="F133">
-        <v>1.058479881724412</v>
+        <v>4.200566447477136</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.008527331843210278</v>
+        <v>18.05665482142751</v>
       </c>
       <c r="C134">
-        <v>0.0255776099796485</v>
+        <v>0.5463631563276927</v>
       </c>
       <c r="D134">
-        <v>0.5081737553820237</v>
+        <v>0.4215721450390813</v>
       </c>
       <c r="E134">
-        <v>0.7509629279868256</v>
+        <v>12.62993581096724</v>
       </c>
       <c r="F134">
-        <v>1.052769767580001</v>
+        <v>4.194039260082861</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.008108040159572645</v>
+        <v>18.05540337308446</v>
       </c>
       <c r="C135">
-        <v>0.0249054463545975</v>
+        <v>0.5398260968520616</v>
       </c>
       <c r="D135">
-        <v>0.504808268093049</v>
+        <v>0.415034590541033</v>
       </c>
       <c r="E135">
-        <v>0.745498844444081</v>
+        <v>12.61804527757138</v>
       </c>
       <c r="F135">
-        <v>1.047086917335432</v>
+        <v>4.187407951982837</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.007709278300907019</v>
+        <v>18.0537696908538</v>
       </c>
       <c r="C136">
-        <v>0.02438576303742859</v>
+        <v>0.5333493671063817</v>
       </c>
       <c r="D136">
-        <v>0.5014641149953243</v>
+        <v>0.4085891259128475</v>
       </c>
       <c r="E136">
-        <v>0.7400697695062363</v>
+        <v>12.60605494193967</v>
       </c>
       <c r="F136">
-        <v>1.041431233967311</v>
+        <v>4.180675196937685</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.007330044117714188</v>
+        <v>18.0517833936576</v>
       </c>
       <c r="C137">
-        <v>0.02397748463637683</v>
+        <v>0.5269327411078034</v>
       </c>
       <c r="D137">
-        <v>0.4981411728888084</v>
+        <v>0.4022347139654004</v>
       </c>
       <c r="E137">
-        <v>0.7346755391992853</v>
+        <v>12.59397621158993</v>
       </c>
       <c r="F137">
-        <v>1.035802620523872</v>
+        <v>4.173843610847781</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.006969394830602627</v>
+        <v>18.04947170989096</v>
       </c>
       <c r="C138">
-        <v>0.02365064023209085</v>
+        <v>0.5205759883647481</v>
       </c>
       <c r="D138">
-        <v>0.4948393191362004</v>
+        <v>0.395970322465019</v>
       </c>
       <c r="E138">
-        <v>0.7293159896047966</v>
+        <v>12.58181916856188</v>
       </c>
       <c r="F138">
-        <v>1.03020098009868</v>
+        <v>4.16691575639843</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.006626429970548561</v>
+        <v>18.04685966991297</v>
       </c>
       <c r="C139">
-        <v>0.02338342233263637</v>
+        <v>0.5142788740115396</v>
       </c>
       <c r="D139">
-        <v>0.4915584316612855</v>
+        <v>0.3897949241694561</v>
       </c>
       <c r="E139">
-        <v>0.7239909568659495</v>
+        <v>12.56959273807552</v>
       </c>
       <c r="F139">
-        <v>1.024626215856592</v>
+        <v>4.159894143857844</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.006300281763208908</v>
+        <v>18.04397026810081</v>
       </c>
       <c r="C140">
-        <v>0.02316002758794584</v>
+        <v>0.5080411589931841</v>
       </c>
       <c r="D140">
-        <v>0.4882983889492063</v>
+        <v>0.3837074966201387</v>
       </c>
       <c r="E140">
-        <v>0.7187002772023851</v>
+        <v>12.55730481353653</v>
       </c>
       <c r="F140">
-        <v>1.019078231030904</v>
+        <v>4.15278122964589</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.005990129079486988</v>
+        <v>18.04082467320664</v>
       </c>
       <c r="C141">
-        <v>0.02296900551601107</v>
+        <v>0.5018625999510774</v>
       </c>
       <c r="D141">
-        <v>0.4850590700456584</v>
+        <v>0.3777070227676614</v>
       </c>
       <c r="E141">
-        <v>0.7134437869143951</v>
+        <v>12.54496239085594</v>
       </c>
       <c r="F141">
-        <v>1.013556928924742</v>
+        <v>4.14557942200866</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.005695202473546634</v>
+        <v>18.03744230624775</v>
       </c>
       <c r="C142">
-        <v>0.02280207493153866</v>
+        <v>0.4957429492913978</v>
       </c>
       <c r="D142">
-        <v>0.4818403545538285</v>
+        <v>0.3717924910429773</v>
       </c>
       <c r="E142">
-        <v>0.7082213223897574</v>
+        <v>12.53257167352758</v>
       </c>
       <c r="F142">
-        <v>1.008062212901771</v>
+        <v>4.138291078734042</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.005414753350377366</v>
+        <v>18.03384110185626</v>
       </c>
       <c r="C143">
-        <v>0.02265325025805177</v>
+        <v>0.4896819553849006</v>
       </c>
       <c r="D143">
-        <v>0.4786421226369628</v>
+        <v>0.365962895120612</v>
       </c>
       <c r="E143">
-        <v>0.7030327201179484</v>
+        <v>12.52013817544808</v>
       </c>
       <c r="F143">
-        <v>1.002593986410251</v>
+        <v>4.130918507670385</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.005148072948854649</v>
+        <v>18.03003748606985</v>
       </c>
       <c r="C144">
-        <v>0.02251820595884918</v>
+        <v>0.4836793625126782</v>
       </c>
       <c r="D144">
-        <v>0.4754642550182286</v>
+        <v>0.3602172344917964</v>
       </c>
       <c r="E144">
-        <v>0.6978778166937233</v>
+        <v>12.50766679044236</v>
       </c>
       <c r="F144">
-        <v>0.9971521529677105</v>
+        <v>4.123463973518247</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.004894494377191336</v>
+        <v>18.02604663998036</v>
       </c>
       <c r="C145">
-        <v>0.02239381467981915</v>
+        <v>0.4777349108798254</v>
       </c>
       <c r="D145">
-        <v>0.4723066329778832</v>
+        <v>0.3545545145716979</v>
       </c>
       <c r="E145">
-        <v>0.6927564488248124</v>
+        <v>12.49516187199744</v>
       </c>
       <c r="F145">
-        <v>0.9917366161662726</v>
+        <v>4.115929695260789</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.004653377008587579</v>
+        <v>18.02188247986755</v>
       </c>
       <c r="C146">
-        <v>0.02227780264366431</v>
+        <v>0.4718483368243319</v>
       </c>
       <c r="D146">
-        <v>0.4691691383534947</v>
+        <v>0.3489737464372233</v>
       </c>
       <c r="E146">
-        <v>0.6876684533451577</v>
+        <v>12.48262729515395</v>
       </c>
       <c r="F146">
-        <v>0.9863472796800526</v>
+        <v>4.108317846200904</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.004424109302041986</v>
+        <v>18.01755784073241</v>
       </c>
       <c r="C147">
-        <v>0.02216853417975727</v>
+        <v>0.4660193728144008</v>
       </c>
       <c r="D147">
-        <v>0.4660516535236894</v>
+        <v>0.3434739473451549</v>
       </c>
       <c r="E147">
-        <v>0.6826136672179424</v>
+        <v>12.47006651653024</v>
       </c>
       <c r="F147">
-        <v>0.9809840472659009</v>
+        <v>4.100630548701437</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.004206112094174683</v>
+        <v>18.01308453364758</v>
       </c>
       <c r="C148">
-        <v>0.02206481877619438</v>
+        <v>0.4602477474208923</v>
       </c>
       <c r="D148">
-        <v>0.4629540614388751</v>
+        <v>0.3380541408744714</v>
       </c>
       <c r="E148">
-        <v>0.6775919275444963</v>
+        <v>12.457482616428</v>
       </c>
       <c r="F148">
-        <v>0.9756468227619922</v>
+        <v>4.09286989502661</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.003998838296827234</v>
+        <v>18.00847342192821</v>
       </c>
       <c r="C149">
-        <v>0.02196578739867134</v>
+        <v>0.4545331855302192</v>
       </c>
       <c r="D149">
-        <v>0.4598762455995073</v>
+        <v>0.332713356642081</v>
       </c>
       <c r="E149">
-        <v>0.6726030715760876</v>
+        <v>12.44487834515586</v>
       </c>
       <c r="F149">
-        <v>0.9703355100943409</v>
+        <v>4.085037933228547</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.003801759250228148</v>
+        <v>18.00373454647349</v>
       </c>
       <c r="C150">
-        <v>0.02187080510738594</v>
+        <v>0.4488754083838073</v>
       </c>
       <c r="D150">
-        <v>0.4568180900588922</v>
+        <v>0.3274506307649669</v>
       </c>
       <c r="E150">
-        <v>0.6676469367164993</v>
+        <v>12.4322561601681</v>
       </c>
       <c r="F150">
-        <v>0.9650500132822696</v>
+        <v>4.077136670615048</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.003614372914039027</v>
+        <v>17.99887713117854</v>
       </c>
       <c r="C151">
-        <v>0.02177939742639139</v>
+        <v>0.4432741335218162</v>
       </c>
       <c r="D151">
-        <v>0.4537794794196763</v>
+        <v>0.3222650060356004</v>
       </c>
       <c r="E151">
-        <v>0.6627233605325331</v>
+        <v>12.41961825587053</v>
       </c>
       <c r="F151">
-        <v>0.9597902364300944</v>
+        <v>4.069168060130341</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.003436211598138826</v>
+        <v>17.99390971691885</v>
       </c>
       <c r="C152">
-        <v>0.02169121016288883</v>
+        <v>0.4377290749960716</v>
       </c>
       <c r="D152">
-        <v>0.450760298819983</v>
+        <v>0.3171555316192107</v>
       </c>
       <c r="E152">
-        <v>0.6578321807638142</v>
+        <v>12.40696660066394</v>
       </c>
       <c r="F152">
-        <v>0.9545560837366273</v>
+        <v>4.061134036493086</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.003266819117684473</v>
+        <v>17.98884015397104</v>
       </c>
       <c r="C153">
-        <v>0.02160597083991786</v>
+        <v>0.4322399434427953</v>
       </c>
       <c r="D153">
-        <v>0.4477604339709511</v>
+        <v>0.312121263459778</v>
       </c>
       <c r="E153">
-        <v>0.6529732353250454</v>
+        <v>12.3943029535638</v>
       </c>
       <c r="F153">
-        <v>0.94934745949795</v>
+        <v>4.053036490845157</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.00310576326382989</v>
+        <v>17.98367571243472</v>
       </c>
       <c r="C154">
-        <v>0.02152348816546095</v>
+        <v>0.4268064460086272</v>
       </c>
       <c r="D154">
-        <v>0.4447797711242324</v>
+        <v>0.3071612644856921</v>
       </c>
       <c r="E154">
-        <v>0.6481463623185367</v>
+        <v>12.38162890126472</v>
       </c>
       <c r="F154">
-        <v>0.9441642681115447</v>
+        <v>4.044877278381672</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.002952636525995807</v>
+        <v>17.97842308739751</v>
       </c>
       <c r="C155">
-        <v>0.02144362001257282</v>
+        <v>0.4214282865600828</v>
       </c>
       <c r="D155">
-        <v>0.441818197079678</v>
+        <v>0.3022746042925276</v>
       </c>
       <c r="E155">
-        <v>0.6433514000414162</v>
+        <v>12.36894586969698</v>
       </c>
       <c r="F155">
-        <v>0.9390064140684834</v>
+        <v>4.036658202809702</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.00280705254887531</v>
+        <v>17.97308847042816</v>
       </c>
       <c r="C156">
-        <v>0.02136624084396601</v>
+        <v>0.4161051657811064</v>
       </c>
       <c r="D156">
-        <v>0.4388755991766833</v>
+        <v>0.297460359493539</v>
       </c>
       <c r="E156">
-        <v>0.6385881869877162</v>
+        <v>12.35625513508587</v>
       </c>
       <c r="F156">
-        <v>0.9338738019641678</v>
+        <v>4.028381051506927</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.002668637793845748</v>
+        <v>17.96767758443037</v>
       </c>
       <c r="C157">
-        <v>0.02129125163260533</v>
+        <v>0.4108367810920022</v>
       </c>
       <c r="D157">
-        <v>0.4359518652969642</v>
+        <v>0.2927176139519079</v>
       </c>
       <c r="E157">
-        <v>0.6338565618634042</v>
+        <v>12.34355785762313</v>
       </c>
       <c r="F157">
-        <v>0.9287663364994695</v>
+        <v>4.020047571662382</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.002537038775759589</v>
+        <v>17.96219571005431</v>
       </c>
       <c r="C158">
-        <v>0.02121856665790079</v>
+        <v>0.4056228268517787</v>
       </c>
       <c r="D158">
-        <v>0.4330468838786539</v>
+        <v>0.2880454584530405</v>
       </c>
       <c r="E158">
-        <v>0.6291563635900765</v>
+        <v>12.33085506388957</v>
       </c>
       <c r="F158">
-        <v>0.9236839224832233</v>
+        <v>4.011659477464306</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.002411925685394671</v>
+        <v>17.95664774823062</v>
       </c>
       <c r="C159">
-        <v>0.02114811569975657</v>
+        <v>0.400462994472406</v>
       </c>
       <c r="D159">
-        <v>0.4301605438977883</v>
+        <v>0.2834429910011808</v>
       </c>
       <c r="E159">
-        <v>0.6244874313082662</v>
+        <v>12.31814769337499</v>
       </c>
       <c r="F159">
-        <v>0.9186264648305962</v>
+        <v>4.003218441782173</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.002292976969675007</v>
+        <v>17.9510382173854</v>
       </c>
       <c r="C160">
-        <v>0.02107984155365722</v>
+        <v>0.395356972340795</v>
       </c>
       <c r="D160">
-        <v>0.4272927348726717</v>
+        <v>0.2789093170740028</v>
       </c>
       <c r="E160">
-        <v>0.6198496043930889</v>
+        <v>12.30543657869653</v>
       </c>
       <c r="F160">
-        <v>0.9135938685688805</v>
+        <v>3.994726114127962</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.002179888457949459</v>
+        <v>17.94537131670153</v>
       </c>
       <c r="C161">
-        <v>0.02101368684033949</v>
+        <v>0.3903044460105656</v>
       </c>
       <c r="D161">
-        <v>0.4244433468533825</v>
+        <v>0.2744435492881775</v>
       </c>
       <c r="E161">
-        <v>0.6152427224558241</v>
+        <v>12.29272248007278</v>
       </c>
       <c r="F161">
-        <v>0.9085860388375324</v>
+        <v>3.986184111090732</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.002072374074648201</v>
+        <v>17.93965092266499</v>
       </c>
       <c r="C162">
-        <v>0.02094961020584665</v>
+        <v>0.3853050983255987</v>
       </c>
       <c r="D162">
-        <v>0.4216122704361597</v>
+        <v>0.2700448076445896</v>
       </c>
       <c r="E162">
-        <v>0.6106666253486845</v>
+        <v>12.28000607887799</v>
       </c>
       <c r="F162">
-        <v>0.9036028808905664</v>
+        <v>3.977594018379444</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.001970160265407758</v>
+        <v>17.93388063785256</v>
       </c>
       <c r="C163">
-        <v>0.0208875628491596</v>
+        <v>0.3803586093537328</v>
       </c>
       <c r="D163">
-        <v>0.4187993967573327</v>
+        <v>0.2657122198007478</v>
       </c>
       <c r="E163">
-        <v>0.6061211531794323</v>
+        <v>12.26728799577104</v>
       </c>
       <c r="F163">
-        <v>0.8986443001012578</v>
+        <v>3.968957387293889</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.001872984684197039</v>
+        <v>17.92806379570826</v>
       </c>
       <c r="C164">
-        <v>0.02082749903612141</v>
+        <v>0.3754646565652833</v>
       </c>
       <c r="D164">
-        <v>0.4160046174884701</v>
+        <v>0.2614449207330133</v>
       </c>
       <c r="E164">
-        <v>0.6016061463123522</v>
+        <v>12.2545687896902</v>
       </c>
       <c r="F164">
-        <v>0.8937102019617417</v>
+        <v>3.960275743306163</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.001780599137557899</v>
+        <v>17.92220349067118</v>
       </c>
       <c r="C165">
-        <v>0.02076938670896701</v>
+        <v>0.370622914959466</v>
       </c>
       <c r="D165">
-        <v>0.4132278248370251</v>
+        <v>0.2572420529335372</v>
       </c>
       <c r="E165">
-        <v>0.5971214453740745</v>
+        <v>12.24184897237262</v>
       </c>
       <c r="F165">
-        <v>0.8888004920833212</v>
+        <v>3.951550583880072</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.001692770755459879</v>
+        <v>17.91630259600013</v>
       </c>
       <c r="C166">
-        <v>0.02071318856121084</v>
+        <v>0.3658330570165045</v>
       </c>
       <c r="D166">
-        <v>0.410468911534359</v>
+        <v>0.25310276669585</v>
       </c>
       <c r="E166">
-        <v>0.5926668912668855</v>
+        <v>12.22912900215141</v>
       </c>
       <c r="F166">
-        <v>0.8839150761999036</v>
+        <v>3.942783378014318</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.001609273245347288</v>
+        <v>17.91036377411109</v>
       </c>
       <c r="C167">
-        <v>0.0206588732309367</v>
+        <v>0.3610947528618315</v>
       </c>
       <c r="D167">
-        <v>0.4077277708584318</v>
+        <v>0.2490262197768758</v>
       </c>
       <c r="E167">
-        <v>0.5882423251691897</v>
+        <v>12.21640930179661</v>
       </c>
       <c r="F167">
-        <v>0.8790538601740336</v>
+        <v>3.933975563792576</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.001529892223987803</v>
+        <v>17.90438950602228</v>
       </c>
       <c r="C168">
-        <v>0.02060640613443432</v>
+        <v>0.3564076703866783</v>
       </c>
       <c r="D168">
-        <v>0.4050042966145501</v>
+        <v>0.2450115775491212</v>
       </c>
       <c r="E168">
-        <v>0.5838475885427266</v>
+        <v>12.20369024830656</v>
       </c>
       <c r="F168">
-        <v>0.8742167499944709</v>
+        <v>3.925128554066184</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.001454427640594569</v>
+        <v>17.89838208963277</v>
       </c>
       <c r="C169">
-        <v>0.02055575280786818</v>
+        <v>0.3517714752299939</v>
       </c>
       <c r="D169">
-        <v>0.4022983831388903</v>
+        <v>0.2410580132947746</v>
       </c>
       <c r="E169">
-        <v>0.5794825231441021</v>
+        <v>12.19097219007904</v>
       </c>
       <c r="F169">
-        <v>0.8694036517770253</v>
+        <v>3.916243737495916</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.001382685797339764</v>
+        <v>17.89234366861623</v>
       </c>
       <c r="C170">
-        <v>0.02050688055915752</v>
+        <v>0.3471858309221301</v>
       </c>
       <c r="D170">
-        <v>0.399609925294488</v>
+        <v>0.2371647078704145</v>
       </c>
       <c r="E170">
-        <v>0.575146971022286</v>
+        <v>12.17825543916166</v>
       </c>
       <c r="F170">
-        <v>0.864614471768627</v>
+        <v>3.907322476273859</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.001314482180442685</v>
+        <v>17.88627623146347</v>
       </c>
       <c r="C171">
-        <v>0.02045975829017044</v>
+        <v>0.3426503989920728</v>
       </c>
       <c r="D171">
-        <v>0.3969388184662985</v>
+        <v>0.2333308498182631</v>
       </c>
       <c r="E171">
-        <v>0.5708407745309968</v>
+        <v>12.16554028314287</v>
       </c>
       <c r="F171">
-        <v>0.8598491163518973</v>
+        <v>3.898366104373559</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.001249642718782767</v>
+        <v>17.88018163317655</v>
       </c>
       <c r="C172">
-        <v>0.0204143549592094</v>
+        <v>0.3381648389942595</v>
       </c>
       <c r="D172">
-        <v>0.3942849585763099</v>
+        <v>0.229555635664185</v>
       </c>
       <c r="E172">
-        <v>0.5665637763398481</v>
+        <v>12.15282698156158</v>
       </c>
       <c r="F172">
-        <v>0.8551074920436493</v>
+        <v>3.889375930963576</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.001188003377786094</v>
+        <v>17.87406159844781</v>
       </c>
       <c r="C173">
-        <v>0.02037064010363743</v>
+        <v>0.3337288086174984</v>
       </c>
       <c r="D173">
-        <v>0.3916482420677528</v>
+        <v>0.2258382695877494</v>
       </c>
       <c r="E173">
-        <v>0.5623158194355011</v>
+        <v>12.1401157735666</v>
       </c>
       <c r="F173">
-        <v>0.8503895054957668</v>
+        <v>3.880353244721293</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.001129404984415983</v>
+        <v>17.86791772969821</v>
       </c>
       <c r="C174">
-        <v>0.02032858614573545</v>
+        <v>0.3293419638041951</v>
       </c>
       <c r="D174">
-        <v>0.3890285659079127</v>
+        <v>0.2221779634965364</v>
       </c>
       <c r="E174">
-        <v>0.5580967471233566</v>
+        <v>12.12740687546162</v>
       </c>
       <c r="F174">
-        <v>0.845695063499449</v>
+        <v>3.871299309331372</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.001073696850510825</v>
+        <v>17.86175152524723</v>
       </c>
       <c r="C175">
-        <v>0.02028816904254126</v>
+        <v>0.3250039587775092</v>
       </c>
       <c r="D175">
-        <v>0.3864258275808737</v>
+        <v>0.218573937323628</v>
       </c>
       <c r="E175">
-        <v>0.5539064030202923</v>
+        <v>12.11470048747669</v>
       </c>
       <c r="F175">
-        <v>0.8410240729883617</v>
+        <v>3.862215363334111</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.001020738936556767</v>
+        <v>17.8555643909974</v>
       </c>
       <c r="C176">
-        <v>0.02024936641977142</v>
+        <v>0.3207144461397906</v>
       </c>
       <c r="D176">
-        <v>0.3838399250923406</v>
+        <v>0.2150254187053617</v>
       </c>
       <c r="E176">
-        <v>0.549744631108773</v>
+        <v>12.10199679025785</v>
       </c>
       <c r="F176">
-        <v>0.8363764410382959</v>
+        <v>3.853102620881356</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.0009703943733809583</v>
+        <v>17.84935760801575</v>
       </c>
       <c r="C177">
-        <v>0.02021215026097958</v>
+        <v>0.3164730769654539</v>
       </c>
       <c r="D177">
-        <v>0.3812707569729858</v>
+        <v>0.2115316430227533</v>
       </c>
       <c r="E177">
-        <v>0.5456112757043101</v>
+        <v>12.0892959518056</v>
       </c>
       <c r="F177">
-        <v>0.831752074867108</v>
+        <v>3.843962278115128</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.0009225337906000042</v>
+        <v>17.84313241213567</v>
       </c>
       <c r="C178">
-        <v>0.02017649663077512</v>
+        <v>0.3122795008888284</v>
       </c>
       <c r="D178">
-        <v>0.3787182222688453</v>
+        <v>0.2080918536943974</v>
       </c>
       <c r="E178">
-        <v>0.5415061814726967</v>
+        <v>12.07659812361799</v>
       </c>
       <c r="F178">
-        <v>0.827150881840004</v>
+        <v>3.834795507861375</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.0008770353269086788</v>
+        <v>17.83688994702299</v>
       </c>
       <c r="C179">
-        <v>0.02014237953010388</v>
+        <v>0.3081333662508744</v>
       </c>
       <c r="D179">
-        <v>0.3761822205427708</v>
+        <v>0.2047053018639005</v>
       </c>
       <c r="E179">
-        <v>0.5374291933861748</v>
+        <v>12.06390344669665</v>
       </c>
       <c r="F179">
-        <v>0.8225727694718353</v>
+        <v>3.82560346057594</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.0008337831465478007</v>
+        <v>17.83063125084171</v>
       </c>
       <c r="C180">
-        <v>0.0201097708470764</v>
+        <v>0.3040343200195193</v>
       </c>
       <c r="D180">
-        <v>0.3736626518645425</v>
+        <v>0.2013712464124644</v>
       </c>
       <c r="E180">
-        <v>0.5333801568270612</v>
+        <v>12.05121204872912</v>
       </c>
       <c r="F180">
-        <v>0.8180176454269054</v>
+        <v>3.816387263468897</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.0007926656054818264</v>
+        <v>17.82435734149989</v>
       </c>
       <c r="C181">
-        <v>0.02007864415758947</v>
+        <v>0.2999820080008101</v>
       </c>
       <c r="D181">
-        <v>0.371159416825437</v>
+        <v>0.1980889542435011</v>
       </c>
       <c r="E181">
-        <v>0.5293589175312379</v>
+        <v>12.03852404841787</v>
       </c>
       <c r="F181">
-        <v>0.8134854175180954</v>
+        <v>3.807148027134505</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.0007535770778574738</v>
+        <v>17.81806914294786</v>
       </c>
       <c r="C182">
-        <v>0.02004898031730324</v>
+        <v>0.2959760748883755</v>
       </c>
       <c r="D182">
-        <v>0.3686724165279758</v>
+        <v>0.1948576999045865</v>
       </c>
       <c r="E182">
-        <v>0.5253653216039494</v>
+        <v>12.02583955379538</v>
       </c>
       <c r="F182">
-        <v>0.8089759937135735</v>
+        <v>3.797886840724919</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.000716418984315549</v>
+        <v>17.81176751347643</v>
       </c>
       <c r="C183">
-        <v>0.02002075612449717</v>
+        <v>0.2920161643726745</v>
       </c>
       <c r="D183">
-        <v>0.3662015525844293</v>
+        <v>0.1916767655888621</v>
       </c>
       <c r="E183">
-        <v>0.5213992155023449</v>
+        <v>12.01315866537615</v>
       </c>
       <c r="F183">
-        <v>0.8044892821379365</v>
+        <v>3.788604773231432</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.0006810951646115339</v>
+        <v>17.80545328058649</v>
       </c>
       <c r="C184">
-        <v>0.0199939547729871</v>
+        <v>0.2881019192082555</v>
       </c>
       <c r="D184">
-        <v>0.3637467271155426</v>
+        <v>0.1885454416679913</v>
       </c>
       <c r="E184">
-        <v>0.5174604460644341</v>
+        <v>12.00048147482733</v>
       </c>
       <c r="F184">
-        <v>0.800025191072233</v>
+        <v>3.779302871729855</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.0006475146514859921</v>
+        <v>17.79912719405092</v>
       </c>
       <c r="C185">
-        <v>0.01996856195852021</v>
+        <v>0.2842329812557529</v>
       </c>
       <c r="D185">
-        <v>0.3613078427427756</v>
+        <v>0.1854630262564144</v>
       </c>
       <c r="E185">
-        <v>0.5135488605391899</v>
+        <v>11.98780806770995</v>
       </c>
       <c r="F185">
-        <v>0.7955836289525337</v>
+        <v>3.769982168000816</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.000615592424406497</v>
+        <v>17.79278996835146</v>
       </c>
       <c r="C186">
-        <v>0.01994455470046495</v>
+        <v>0.2804089916168379</v>
       </c>
       <c r="D186">
-        <v>0.3588848026027356</v>
+        <v>0.1824288253396929</v>
       </c>
       <c r="E186">
-        <v>0.5096643065553219</v>
+        <v>11.97513852207162</v>
       </c>
       <c r="F186">
-        <v>0.7911645043778128</v>
+        <v>3.760643674068934</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.0005852467955112135</v>
+        <v>17.78644227443574</v>
       </c>
       <c r="C187">
-        <v>0.01992191375170015</v>
+        <v>0.2766295907018655</v>
       </c>
       <c r="D187">
-        <v>0.3564775103331543</v>
+        <v>0.1794421516188921</v>
       </c>
       <c r="E187">
-        <v>0.5058066321324295</v>
+        <v>11.96247291084359</v>
       </c>
       <c r="F187">
-        <v>0.786767726109746</v>
+        <v>3.751288383639614</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.0005563995135056933</v>
+        <v>17.78008473103727</v>
       </c>
       <c r="C188">
-        <v>0.01990061769353805</v>
+        <v>0.2728944182164023</v>
       </c>
       <c r="D188">
-        <v>0.3540858700747583</v>
+        <v>0.1765023265782138</v>
       </c>
       <c r="E188">
-        <v>0.5019756856642537</v>
+        <v>11.94981129999969</v>
       </c>
       <c r="F188">
-        <v>0.7823932030732595</v>
+        <v>3.741917269521508</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.0005289765906596787</v>
+        <v>17.77371792933566</v>
       </c>
       <c r="C189">
-        <v>0.01988064093510639</v>
+        <v>0.2692031134250397</v>
       </c>
       <c r="D189">
-        <v>0.3517097864673333</v>
+        <v>0.1736086794655425</v>
       </c>
       <c r="E189">
-        <v>0.4981713159881193</v>
+        <v>11.93715375242659</v>
       </c>
       <c r="F189">
-        <v>0.7780408443547165</v>
+        <v>3.732531290825873</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.000502908257232292</v>
+        <v>17.76734242083057</v>
       </c>
       <c r="C190">
-        <v>0.01986195921637241</v>
+        <v>0.2655553151327671</v>
       </c>
       <c r="D190">
-        <v>0.3493491646479798</v>
+        <v>0.1707605471862257</v>
       </c>
       <c r="E190">
-        <v>0.4943933723385529</v>
+        <v>11.92450032662995</v>
       </c>
       <c r="F190">
-        <v>0.7737105592105837</v>
+        <v>3.723131388270991</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.0004781270317526868</v>
+        <v>17.76095871835972</v>
       </c>
       <c r="C191">
-        <v>0.01984456040237843</v>
+        <v>0.2619506617683506</v>
       </c>
       <c r="D191">
-        <v>0.3470039102574708</v>
+        <v>0.1679572740113306</v>
       </c>
       <c r="E191">
-        <v>0.4906417043664218</v>
+        <v>11.91185107317365</v>
       </c>
       <c r="F191">
-        <v>0.7694022570659651</v>
+        <v>3.713718485880648</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.0004545688159587518</v>
+        <v>17.75456731375425</v>
       </c>
       <c r="C192">
-        <v>0.01982842506179656</v>
+        <v>0.2583887914260043</v>
       </c>
       <c r="D192">
-        <v>0.3446739294308662</v>
+        <v>0.1651982104578659</v>
       </c>
       <c r="E192">
-        <v>0.4869161621155754</v>
+        <v>11.89920604404666</v>
       </c>
       <c r="F192">
-        <v>0.7651158475158067</v>
+        <v>3.704293487719966</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.0004321745113079239</v>
+        <v>17.74816866202128</v>
       </c>
       <c r="C193">
-        <v>0.01981354390027044</v>
+        <v>0.2548693417728495</v>
       </c>
       <c r="D193">
-        <v>0.3423591287983025</v>
+        <v>0.1624827168883385</v>
       </c>
       <c r="E193">
-        <v>0.4832165960799926</v>
+        <v>11.88656528735735</v>
       </c>
       <c r="F193">
-        <v>0.7608512403226134</v>
+        <v>3.694857285587759</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.0004108861714646476</v>
+        <v>17.74176319098133</v>
       </c>
       <c r="C194">
-        <v>0.01979991136306736</v>
+        <v>0.2513919506482005</v>
       </c>
       <c r="D194">
-        <v>0.3400594154791495</v>
+        <v>0.1598101604725566</v>
       </c>
       <c r="E194">
-        <v>0.4795428571801255</v>
+        <v>11.87392884194306</v>
       </c>
       <c r="F194">
-        <v>0.7566083454259472</v>
+        <v>3.68541075410352</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.0003906488917612574</v>
+        <v>17.73535131036704</v>
       </c>
       <c r="C195">
-        <v>0.01978750902474828</v>
+        <v>0.2479562557166703</v>
       </c>
       <c r="D195">
-        <v>0.3377746970865493</v>
+        <v>0.157179915995091</v>
       </c>
       <c r="E195">
-        <v>0.4758947967682108</v>
+        <v>11.86129675081646</v>
       </c>
       <c r="F195">
-        <v>0.7523870729396902</v>
+        <v>3.675954752385086</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.0003714108689788143</v>
+        <v>17.72893339509823</v>
       </c>
       <c r="C196">
-        <v>0.01977632127936715</v>
+        <v>0.2445618946641206</v>
       </c>
       <c r="D196">
-        <v>0.3355048817256602</v>
+        <v>0.1545913646864586</v>
       </c>
       <c r="E196">
-        <v>0.4722722666210838</v>
+        <v>11.84866905310968</v>
       </c>
       <c r="F196">
-        <v>0.7481873331538923</v>
+        <v>3.666490121651083</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.0003531230997825445</v>
+        <v>17.72250980543018</v>
       </c>
       <c r="C197">
-        <v>0.01976633042365293</v>
+        <v>0.2412085050489276</v>
       </c>
       <c r="D197">
-        <v>0.3332498779888182</v>
+        <v>0.1520438956965629</v>
       </c>
       <c r="E197">
-        <v>0.4686751189535473</v>
+        <v>11.83604578057772</v>
       </c>
       <c r="F197">
-        <v>0.7440090365318377</v>
+        <v>3.657017690482814</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.0003357382613351915</v>
+        <v>17.71608088037734</v>
       </c>
       <c r="C198">
-        <v>0.01975751026775183</v>
+        <v>0.237895724597008</v>
       </c>
       <c r="D198">
-        <v>0.3310095949552892</v>
+        <v>0.1495369062342896</v>
       </c>
       <c r="E198">
-        <v>0.4651032064468092</v>
+        <v>11.82342696766399</v>
       </c>
       <c r="F198">
-        <v>0.7398520937207226</v>
+        <v>3.647538272368104</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.0003192115253764246</v>
+        <v>17.70964693349044</v>
       </c>
       <c r="C199">
-        <v>0.01974983676019755</v>
+        <v>0.2346231914882303</v>
       </c>
       <c r="D199">
-        <v>0.3287839421834493</v>
+        <v>0.1470698005250669</v>
       </c>
       <c r="E199">
-        <v>0.4615563822248866</v>
+        <v>11.81081264570851</v>
       </c>
       <c r="F199">
-        <v>0.7357164155474266</v>
+        <v>3.638052666154389</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.0003035013458912475</v>
+        <v>17.70320826623853</v>
       </c>
       <c r="C200">
-        <v>0.0197433127536065</v>
+        <v>0.2313905440983721</v>
       </c>
       <c r="D200">
-        <v>0.3265728297220424</v>
+        <v>0.1446419901075185</v>
       </c>
       <c r="E200">
-        <v>0.4580344998633094</v>
+        <v>11.79820284218471</v>
       </c>
       <c r="F200">
-        <v>0.7316019130210377</v>
+        <v>3.628561654659921</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.0002885670059321281</v>
+        <v>17.69676516068952</v>
       </c>
       <c r="C201">
-        <v>0.01973792583527614</v>
+        <v>0.2281974211868684</v>
       </c>
       <c r="D201">
-        <v>0.3243761680995568</v>
+        <v>0.1422528928240815</v>
       </c>
       <c r="E201">
-        <v>0.4545374133657348</v>
+        <v>11.78559758432436</v>
       </c>
       <c r="F201">
-        <v>0.7275084973291924</v>
+        <v>3.619066007902112</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.0002743700863266396</v>
+        <v>17.69031788104901</v>
       </c>
       <c r="C202">
-        <v>0.01973365911230031</v>
+        <v>0.2250434615120864</v>
       </c>
       <c r="D202">
-        <v>0.3221938683244761</v>
+        <v>0.139901935000818</v>
       </c>
       <c r="E202">
-        <v>0.4510649772389573</v>
+        <v>11.77299689768633</v>
       </c>
       <c r="F202">
-        <v>0.7234360798501247</v>
+        <v>3.609566482516982</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.0002608743690261973</v>
+        <v>17.68386668009228</v>
       </c>
       <c r="C203">
-        <v>0.01973050937108405</v>
+        <v>0.2219283048203686</v>
       </c>
       <c r="D203">
-        <v>0.3200258418829469</v>
+        <v>0.1375885497191445</v>
       </c>
       <c r="E203">
-        <v>0.4476170464420798</v>
+        <v>11.76040080569344</v>
       </c>
       <c r="F203">
-        <v>0.7193845721467632</v>
+        <v>3.600063821364332</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.0002480453350200102</v>
+        <v>17.67741179387842</v>
       </c>
       <c r="C204">
-        <v>0.01972846270357212</v>
+        <v>0.2188515913201243</v>
       </c>
       <c r="D204">
-        <v>0.3178720007345025</v>
+        <v>0.1353121772178817</v>
       </c>
       <c r="E204">
-        <v>0.4441934764053424</v>
+        <v>11.74780933080432</v>
       </c>
       <c r="F204">
-        <v>0.7153538859698545</v>
+        <v>3.590558752819311</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.0002358498362255667</v>
+        <v>17.67095344578886</v>
       </c>
       <c r="C205">
-        <v>0.01972750394214299</v>
+        <v>0.2158129618462023</v>
       </c>
       <c r="D205">
-        <v>0.3157322573187912</v>
+        <v>0.1330722645847555</v>
       </c>
       <c r="E205">
-        <v>0.4407941230040291</v>
+        <v>11.73522249444447</v>
       </c>
       <c r="F205">
-        <v>0.7113439332544</v>
+        <v>3.581051992604592</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.0002242565068030763</v>
+        <v>17.66449184906431</v>
       </c>
       <c r="C206">
-        <v>0.01972761977524524</v>
+        <v>0.21281205782567</v>
       </c>
       <c r="D206">
-        <v>0.3136065245469309</v>
+        <v>0.130868265834225</v>
       </c>
       <c r="E206">
-        <v>0.4374188426136367</v>
+        <v>11.72264031635567</v>
       </c>
       <c r="F206">
-        <v>0.7073546261314403</v>
+        <v>3.571544244446897</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.0002132361119821589</v>
+        <v>17.65802720129972</v>
       </c>
       <c r="C207">
-        <v>0.01972879595159083</v>
+        <v>0.209848521100103</v>
       </c>
       <c r="D207">
-        <v>0.311494715801777</v>
+        <v>0.1286996423985131</v>
       </c>
       <c r="E207">
-        <v>0.4340674920919798</v>
+        <v>11.71006281551055</v>
       </c>
       <c r="F207">
-        <v>0.7033858769220386</v>
+        <v>3.562036199137348</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.0002027600610683695</v>
+        <v>17.65155969270827</v>
       </c>
       <c r="C208">
-        <v>0.01973101536327237</v>
+        <v>0.2069219949099435</v>
       </c>
       <c r="D208">
-        <v>0.3093967449342073</v>
+        <v>0.1265658624785377</v>
       </c>
       <c r="E208">
-        <v>0.4307399287771528</v>
+        <v>11.6974900103015</v>
       </c>
       <c r="F208">
-        <v>0.6994375981402328</v>
+        <v>3.552528534264234</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.0001928013347298462</v>
+        <v>17.64508950279369</v>
       </c>
       <c r="C209">
-        <v>0.01973427457676594</v>
+        <v>0.2040321231760347</v>
       </c>
       <c r="D209">
-        <v>0.3073125262627739</v>
+        <v>0.1244664011855263</v>
       </c>
       <c r="E209">
-        <v>0.4274360104824179</v>
+        <v>11.6849219175713</v>
       </c>
       <c r="F209">
-        <v>0.6955097024899214</v>
+        <v>3.54302191507902</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.0001833346653338949</v>
+        <v>17.63861679881434</v>
       </c>
       <c r="C210">
-        <v>0.01973856427902953</v>
+        <v>0.2011785507854337</v>
       </c>
       <c r="D210">
-        <v>0.3052419745753682</v>
+        <v>0.1224007399868666</v>
       </c>
       <c r="E210">
-        <v>0.4241555955023827</v>
+        <v>11.67235855340611</v>
       </c>
       <c r="F210">
-        <v>0.6916021028759798</v>
+        <v>3.533516996019362</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.0001743356981433251</v>
+        <v>17.63214174206643</v>
       </c>
       <c r="C211">
-        <v>0.01974387808242339</v>
+        <v>0.1983609232736677</v>
       </c>
       <c r="D211">
-        <v>0.3031850051233946</v>
+        <v>0.1203683676379497</v>
       </c>
       <c r="E211">
-        <v>0.4208985426493577</v>
+        <v>11.65979993369175</v>
       </c>
       <c r="F211">
-        <v>0.6877147123984756</v>
+        <v>3.524014419368949</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.0001657811592173732</v>
+        <v>17.62566448406999</v>
       </c>
       <c r="C212">
-        <v>0.01975021571623986</v>
+        <v>0.1955788873558693</v>
       </c>
       <c r="D212">
-        <v>0.3011415336213945</v>
+        <v>0.1183687795413323</v>
       </c>
       <c r="E212">
-        <v>0.4176647112230764</v>
+        <v>11.64724607304883</v>
       </c>
       <c r="F212">
-        <v>0.6838474443553044</v>
+        <v>3.514514815327137</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.0001576491011861703</v>
+        <v>17.61918516743406</v>
       </c>
       <c r="C213">
-        <v>0.01975756805830541</v>
+        <v>0.1928320911308696</v>
       </c>
       <c r="D213">
-        <v>0.2991114762423862</v>
+        <v>0.1164014777510629</v>
       </c>
       <c r="E213">
-        <v>0.414453961021802</v>
+        <v>11.63469698528935</v>
       </c>
       <c r="F213">
-        <v>0.6800002122395743</v>
+        <v>3.50501880214438</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.0001499189444131085</v>
+        <v>17.61270392899002</v>
       </c>
       <c r="C214">
-        <v>0.01976592299570503</v>
+        <v>0.1901201837392028</v>
       </c>
       <c r="D214">
-        <v>0.2970947496212247</v>
+        <v>0.1144659707953567</v>
       </c>
       <c r="E214">
-        <v>0.41126615231719</v>
+        <v>11.62215268411641</v>
       </c>
       <c r="F214">
-        <v>0.6761729297500154</v>
+        <v>3.495526988267675</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.0001425706268897171</v>
+        <v>17.60622089713833</v>
       </c>
       <c r="C215">
-        <v>0.01977527024802848</v>
+        <v>0.1874428155725192</v>
       </c>
       <c r="D215">
-        <v>0.2950912708509219</v>
+        <v>0.1125617733857947</v>
       </c>
       <c r="E215">
-        <v>0.4081011459237048</v>
+        <v>11.60961318234291</v>
       </c>
       <c r="F215">
-        <v>0.672365510785452</v>
+        <v>3.486039970721031</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.0001355851818900776</v>
+        <v>17.59973619394598</v>
       </c>
       <c r="C216">
-        <v>0.01978559448845774</v>
+        <v>0.1847996375902138</v>
       </c>
       <c r="D216">
-        <v>0.2931009574800743</v>
+        <v>0.110688407365052</v>
       </c>
       <c r="E216">
-        <v>0.4049588031517411</v>
+        <v>11.59707849210478</v>
       </c>
       <c r="F216">
-        <v>0.6685778694471074</v>
+        <v>3.476558335438735</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.0001289449747013854</v>
+        <v>17.59324993598801</v>
       </c>
       <c r="C217">
-        <v>0.01979687733949236</v>
+        <v>0.1821903029368926</v>
       </c>
       <c r="D217">
-        <v>0.2911237275115752</v>
+        <v>0.1088454007785532</v>
       </c>
       <c r="E217">
-        <v>0.4018389858239527</v>
+        <v>11.58454862532886</v>
       </c>
       <c r="F217">
-        <v>0.6648099200364919</v>
+        <v>3.467082656864393</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.0001226328083494205</v>
+        <v>17.58676223230017</v>
       </c>
       <c r="C218">
-        <v>0.01980911645550081</v>
+        <v>0.179614465864259</v>
       </c>
       <c r="D218">
-        <v>0.289159499397881</v>
+        <v>0.1070322880647576</v>
       </c>
       <c r="E218">
-        <v>0.3987415562542568</v>
+        <v>11.57202359334771</v>
       </c>
       <c r="F218">
-        <v>0.6610615770651201</v>
+        <v>3.457613500468523</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.0001166324037935698</v>
+        <v>17.58027318787758</v>
       </c>
       <c r="C219">
-        <v>0.01982229929056392</v>
+        <v>0.1770717820623622</v>
       </c>
       <c r="D219">
-        <v>0.2872081920461191</v>
+        <v>0.1052486096652221</v>
       </c>
       <c r="E219">
-        <v>0.3956663772879912</v>
+        <v>11.55950340698599</v>
       </c>
       <c r="F219">
-        <v>0.6573327552492237</v>
+        <v>3.448151420999098</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.0001109284267126902</v>
+        <v>17.57378290211135</v>
       </c>
       <c r="C220">
-        <v>0.01983642600253374</v>
+        <v>0.1745619085198698</v>
       </c>
       <c r="D220">
-        <v>0.2852697248111379</v>
+        <v>0.1034939124682616</v>
       </c>
       <c r="E220">
-        <v>0.3926133122953125</v>
+        <v>11.54698807684431</v>
       </c>
       <c r="F220">
-        <v>0.6536233695117218</v>
+        <v>3.438696962992096</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.0001055063556514642</v>
+        <v>17.56729146845201</v>
       </c>
       <c r="C221">
-        <v>0.01985150074786048</v>
+        <v>0.1720845033953816</v>
       </c>
       <c r="D221">
-        <v>0.283344017495146</v>
+        <v>0.101767749671968</v>
       </c>
       <c r="E221">
-        <v>0.3895822251635856</v>
+        <v>11.5344776130901</v>
       </c>
       <c r="F221">
-        <v>0.6499333349806394</v>
+        <v>3.429250660012659</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.0001003521521277172</v>
+        <v>17.56079897695734</v>
       </c>
       <c r="C222">
-        <v>0.0198675209649418</v>
+        <v>0.1696392270632106</v>
       </c>
       <c r="D222">
-        <v>0.2814309903452762</v>
+        <v>0.1000696805287025</v>
       </c>
       <c r="E222">
-        <v>0.3865729802944299</v>
+        <v>11.52197202543229</v>
       </c>
       <c r="F222">
-        <v>0.6462625669981005</v>
+        <v>3.419813037336318</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>9.545253819807962E-05</v>
+        <v>17.55430551266289</v>
       </c>
       <c r="C223">
-        <v>0.0198844806768698</v>
+        <v>0.1672257412635149</v>
       </c>
       <c r="D223">
-        <v>0.2795305640511774</v>
+        <v>0.09839927034919228</v>
       </c>
       <c r="E223">
-        <v>0.3835854426028374</v>
+        <v>11.50947132347735</v>
       </c>
       <c r="F223">
-        <v>0.6426109811152997</v>
+        <v>3.410384610186103</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>9.079513101980635E-05</v>
+        <v>17.54781115606341</v>
       </c>
       <c r="C224">
-        <v>0.01990237681130541</v>
+        <v>0.1648437094096254</v>
       </c>
       <c r="D224">
-        <v>0.2776426597468195</v>
+        <v>0.09675609022748259</v>
       </c>
       <c r="E224">
-        <v>0.3806194775581179</v>
+        <v>11.49697551647163</v>
       </c>
       <c r="F224">
-        <v>0.6389784930941291</v>
+        <v>3.400965884346302</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>8.636785647289904E-05</v>
+        <v>17.54131598452741</v>
       </c>
       <c r="C225">
-        <v>0.0199211900936838</v>
+        <v>0.1624927961392157</v>
       </c>
       <c r="D225">
-        <v>0.2757671990055215</v>
+        <v>0.09513971751580215</v>
       </c>
       <c r="E225">
-        <v>0.3776749511504552</v>
+        <v>11.48448461320548</v>
       </c>
       <c r="F225">
-        <v>0.6353650189061689</v>
+        <v>3.391557355170655</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>8.215929117444165E-05</v>
+        <v>17.53482007097143</v>
       </c>
       <c r="C226">
-        <v>0.01994090202800692</v>
+        <v>0.1601726680744781</v>
       </c>
       <c r="D226">
-        <v>0.2739041038391214</v>
+        <v>0.09354973534939108</v>
       </c>
       <c r="E226">
-        <v>0.3747517299028471</v>
+        <v>11.47199862246896</v>
       </c>
       <c r="F226">
-        <v>0.6317704747408863</v>
+        <v>3.382159510317817</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>7.815892369781544E-05</v>
+        <v>17.52832348503166</v>
       </c>
       <c r="C227">
-        <v>0.01996151074384744</v>
+        <v>0.1578829938224129</v>
       </c>
       <c r="D227">
-        <v>0.2720532966950479</v>
+        <v>0.0919857326975507</v>
       </c>
       <c r="E227">
-        <v>0.3718496808415727</v>
+        <v>11.45951755274419</v>
       </c>
       <c r="F227">
-        <v>0.6281947770009138</v>
+        <v>3.372772828021344</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>7.435656937455613E-05</v>
+        <v>17.52182629331777</v>
       </c>
       <c r="C228">
-        <v>0.0199829967094996</v>
+        <v>0.1556234436666841</v>
       </c>
       <c r="D228">
-        <v>0.2702147004559033</v>
+        <v>0.09044730424458292</v>
       </c>
       <c r="E228">
-        <v>0.3689686715675955</v>
+        <v>11.44704141212267</v>
       </c>
       <c r="F228">
-        <v>0.6246378423033198</v>
+        <v>3.36339777774326</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7.074233969858252E-05</v>
+        <v>17.51532855855694</v>
       </c>
       <c r="C229">
-        <v>0.02000536529353375</v>
+        <v>0.1533936897341415</v>
       </c>
       <c r="D229">
-        <v>0.2683882384383566</v>
+        <v>0.08893405037685186</v>
       </c>
       <c r="E229">
-        <v>0.3661085702076923</v>
+        <v>11.43457020869137</v>
       </c>
       <c r="F229">
-        <v>0.6210995874792048</v>
+        <v>3.354034819129255</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6.730685488012815E-05</v>
+        <v>17.50883034118475</v>
       </c>
       <c r="C230">
-        <v>0.02002862374829634</v>
+        <v>0.1511934052870378</v>
       </c>
       <c r="D230">
-        <v>0.2665738343899585</v>
+        <v>0.0874455772003602</v>
       </c>
       <c r="E230">
-        <v>0.363269245429935</v>
+        <v>11.42210395029175</v>
       </c>
       <c r="F230">
-        <v>0.6175799295810449</v>
+        <v>3.344684404541945</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6.404110148300541E-05</v>
+        <v>17.50233169863134</v>
       </c>
       <c r="C231">
-        <v>0.02005277559245501</v>
+        <v>0.1490222664307992</v>
       </c>
       <c r="D231">
-        <v>0.2647714124878799</v>
+        <v>0.08598149637709951</v>
       </c>
       <c r="E231">
-        <v>0.3604505664256278</v>
+        <v>11.40964264448239</v>
       </c>
       <c r="F231">
-        <v>0.6140787858783212</v>
+        <v>3.335346977581753</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6.093700395940566E-05</v>
+        <v>17.49583268526244</v>
       </c>
       <c r="C232">
-        <v>0.02007782245265669</v>
+        <v>0.1468799508926552</v>
       </c>
       <c r="D232">
-        <v>0.262980897335683</v>
+        <v>0.08454142509855483</v>
       </c>
       <c r="E232">
-        <v>0.3576524029389067</v>
+        <v>11.3971862987702</v>
       </c>
       <c r="F232">
-        <v>0.6105960738569115</v>
+        <v>3.326022973599717</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>5.79870570895734E-05</v>
+        <v>17.48933335345817</v>
       </c>
       <c r="C233">
-        <v>0.02010376988183472</v>
+        <v>0.1447661383903355</v>
       </c>
       <c r="D233">
-        <v>0.2612022139643718</v>
+        <v>0.08312498595418034</v>
       </c>
       <c r="E233">
-        <v>0.354874625268456</v>
+        <v>11.38473492048096</v>
       </c>
       <c r="F233">
-        <v>0.6071317112197621</v>
+        <v>3.316712818948768</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>5.518306177501522E-05</v>
+        <v>17.48283375268984</v>
       </c>
       <c r="C234">
-        <v>0.02013058769086781</v>
+        <v>0.1426805104176137</v>
       </c>
       <c r="D234">
-        <v>0.2594352878289408</v>
+        <v>0.08173180701627528</v>
       </c>
       <c r="E234">
-        <v>0.3521171042549755</v>
+        <v>11.37228851673087</v>
       </c>
       <c r="F234">
-        <v>0.6036856158983123</v>
+        <v>3.307416932732125</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>5.251754112568861E-05</v>
+        <v>17.47633393001903</v>
       </c>
       <c r="C235">
-        <v>0.02015825473145562</v>
+        <v>0.1406227502288044</v>
       </c>
       <c r="D235">
-        <v>0.2576800448067104</v>
+        <v>0.0803615216806184</v>
       </c>
       <c r="E235">
-        <v>0.3493797112807578</v>
+        <v>11.35984709457485</v>
       </c>
       <c r="F235">
-        <v>0.6002577060434408</v>
+        <v>3.298135726125834</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>4.998324747524795E-05</v>
+        <v>17.46983393107971</v>
       </c>
       <c r="C236">
-        <v>0.02018677322694675</v>
+        <v>0.1385925437353062</v>
       </c>
       <c r="D236">
-        <v>0.2559364111955527</v>
+        <v>0.0790137686253277</v>
       </c>
       <c r="E236">
-        <v>0.3466623182631808</v>
+        <v>11.34741066093218</v>
       </c>
       <c r="F236">
-        <v>0.596847900029405</v>
+        <v>3.288869602485156</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>4.757367132004944E-05</v>
+        <v>17.46333379950564</v>
       </c>
       <c r="C237">
-        <v>0.02021614211258508</v>
+        <v>0.136589578697869</v>
       </c>
       <c r="D237">
-        <v>0.2542043137113071</v>
+        <v>0.07768819174362838</v>
       </c>
       <c r="E237">
-        <v>0.343964797696679</v>
+        <v>11.33497922254434</v>
       </c>
       <c r="F237">
-        <v>0.5934561164548962</v>
+        <v>3.279618956293293</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>4.52844123095181E-05</v>
+        <v>17.45683357635836</v>
       </c>
       <c r="C238">
-        <v>0.02024637212885473</v>
+        <v>0.1346135450064779</v>
       </c>
       <c r="D238">
-        <v>0.2524836794881302</v>
+        <v>0.07638444007735738</v>
       </c>
       <c r="E238">
-        <v>0.3412870226190589</v>
+        <v>11.32255278610738</v>
       </c>
       <c r="F238">
-        <v>0.5900822741337468</v>
+        <v>3.270384175453016</v>
       </c>
     </row>
   </sheetData>
